--- a/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/烟机工业数字大脑-2024-06-17.xlsx
+++ b/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/烟机工业数字大脑-2024-06-17.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangzuogong/Desktop/tmp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangzuogong/IdeaProjects/ike-date/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927EDDD8-3872-7C40-9016-66FF2BFBAE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9F30FD-5FCB-4547-BEC9-0A598534A544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外协订单指标" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="179">
   <si>
     <t>模块</t>
   </si>
@@ -424,12 +424,6 @@
   </si>
   <si>
     <t>A级别供应商采购金额</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select * from ODS_SRM.dbo.srm_mgt_access  </t>
-  </si>
-  <si>
-    <t>supplier_level</t>
   </si>
   <si>
     <t>B级别供应商采购金额</t>
@@ -560,16 +554,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>preparation_cont</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> select count(distinct supplier_id) preparation_cont
-  from ODS_SRM.dbo.srm_mgt_access
- where created_ts &gt;=CAST(YEAR(GETDATE()) AS VARCHAR(4)) + '-01-01'  
-   and created_ts&lt;=CONVERT(DATE, GETDATE()) </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>蒋工说暂时不做</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -580,9 +564,6 @@
   <si>
     <t>digital_brain_outsourcing_dashboard_index_month</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ODS_HANA.dbo.digital_brain_purchase_department_amount_index</t>
   </si>
   <si>
     <t xml:space="preserve">    select SUM(plan_contract_amount) as contract_amount
@@ -594,12 +575,152 @@
   <si>
     <t>ODS_HANA.dbo.digital_brain_purchase_plan_amount</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  select SUPPLIER_ID
+                            ,CONVERT(DATE, created_ts) supplier_created_date
+                            ,CASE
+                                 WHEN CHARINDEX('(', supplier_level) &gt; 0
+                                 THEN SUBSTRING(supplier_level, 1, CHARINDEX('(', supplier_level) - 1)
+                             ELSE supplier_level
+                             END AS supplier_level      
+                       from ODS_SRM.dbo.srm_mgt_access a
+                      where supplier_level is not null 
+                        and purchaser_id = 'BUYER0000000001'
+                        and supplier_type like '%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>%'
+                      GROUP by SUPPLIER_ID
+                             ,CASE
+                                   WHEN CHARINDEX('(', supplier_level) &gt; 0
+                                   THEN SUBSTRING(supplier_level, 1, CHARINDEX('(', supplier_level) - 1)
+                              ELSE supplier_level END
+                             ,CONVERT(DATE, created_ts)</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUPPLIER_ID</t>
+  </si>
+  <si>
+    <t>ODS_HANA.dbo.digital_brain_purchase_plan_amount</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    select  sum(plan_contract_amount)/10000
+            ,CONVERT(VARCHAR(7), CONVERT(DATE,approved_date_time)  , 120)
+        from ODS_HANA.dbo.digital_brain_purchase_plan_amount
+        where contract_state_desc = '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>审批通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>' 
+         AND CONVERT(DATE, approved_date_time) &gt;=CAST(YEAR(GETDATE()) AS VARCHAR(4)) + '-01-01'   
+         AND CONVERT(DATE,approved_date_time) &lt;= CONVERT(DATE, GETDATE())  
+         AND contract_year=YEAR( GETDATE())
+         group by CONVERT(VARCHAR(7), CONVERT(DATE,approved_date_time)  , 120)</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>plan_contract_amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  select       sum(plan_contract_amount)/10000
+            ,sponsor_dept_desc
+        from ODS_HANA.dbo.digital_brain_purchase_plan_amount
+        where contract_state_desc = '审批通过' 
+         AND CONVERT(DATE, approved_date_time) &gt;=CAST(YEAR(GETDATE()) AS VARCHAR(4)) + '-01-01'   
+         AND CONVERT(DATE,approved_date_time) &lt;= CONVERT(DATE, GETDATE())  
+         AND contract_year=YEAR( GETDATE())
+         group by sponsor_dept_desc</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          select  sum(plan_contract_amount)/10000
+             ,pur_type_name
+		       ,category_type_name
+        from ODS_HANA.dbo.digital_brain_purchase_plan_amount
+        where contract_state_desc = '审批通过' 
+        and category_type_name ='采购品类'
+         AND CONVERT(DATE, approved_date_time) &gt;=CAST(YEAR(GETDATE()) AS VARCHAR(4)) + '-01-01'   
+         AND CONVERT(DATE,approved_date_time) &lt;= CONVERT(DATE, GETDATE())  
+         AND contract_year=YEAR( GETDATE())
+         group by pur_type_name
+		       ,category_type_name</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"     select  sum(plan_contract_amount)/10000
+            ,supplier_level
+        from ODS_HANA.dbo.digital_brain_purchase_plan_amount
+        where contract_state_desc = '审批通过' 
+         and supplier_level is not null
+         AND CONVERT(DATE, approved_date_time) &gt;=CAST(YEAR(GETDATE()) AS VARCHAR(4)) + '-01-01'   
+         AND CONVERT(DATE,approved_date_time) &lt;= CONVERT(DATE, GETDATE())  
+         AND contract_year=YEAR( GETDATE())
+         group by supplier_level"
+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>plan_contract_amount</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       select  sum(plan_contract_amount)/10000
+             ,pur_type_name
+		       ,category_type_name
+        from ODS_HANA.dbo.digital_brain_purchase_plan_amount
+        where contract_state_desc = '审批通过' 
+        and category_type_name ='生产品类'
+         AND CONVERT(DATE, approved_date_time) &gt;=CAST(YEAR(GETDATE()) AS VARCHAR(4)) + '-01-01'   
+         AND CONVERT(DATE,approved_date_time) &lt;= CONVERT(DATE, GETDATE())  
+         AND contract_year=YEAR( GETDATE())
+         group by pur_type_name
+		       ,category_type_name
+         </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -693,6 +814,13 @@
       <color rgb="FF000000"/>
       <name val="Menlo"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -818,7 +946,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -882,6 +1010,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -894,6 +1037,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -903,23 +1049,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1329,7 +1472,7 @@
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -1347,7 +1490,7 @@
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
@@ -1361,7 +1504,7 @@
       <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
@@ -1375,7 +1518,7 @@
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="24"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
@@ -1389,8 +1532,8 @@
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="32" t="s">
-        <v>170</v>
+      <c r="C7" s="30" t="s">
+        <v>166</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>23</v>
@@ -1405,7 +1548,7 @@
       <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="22"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="6" t="s">
         <v>26</v>
       </c>
@@ -1419,7 +1562,7 @@
       <c r="B9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="6" t="s">
         <v>29</v>
       </c>
@@ -1433,7 +1576,7 @@
       <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="6" t="s">
         <v>32</v>
       </c>
@@ -1457,7 +1600,7 @@
       <c r="B13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="26" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -1471,7 +1614,7 @@
       <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="6" t="s">
         <v>32</v>
       </c>
@@ -1483,7 +1626,7 @@
       <c r="B15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="6" t="s">
         <v>39</v>
       </c>
@@ -1495,7 +1638,7 @@
       <c r="B16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="22"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="6" t="s">
         <v>41</v>
       </c>
@@ -1507,7 +1650,7 @@
       <c r="B17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="22"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="6" t="s">
         <v>43</v>
       </c>
@@ -1519,7 +1662,7 @@
       <c r="B18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="23"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="6" t="s">
         <v>45</v>
       </c>
@@ -1536,7 +1679,7 @@
       <c r="B21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -1549,7 +1692,7 @@
       <c r="B22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="23"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="6" t="s">
         <v>48</v>
       </c>
@@ -1570,7 +1713,7 @@
         <v>50</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="26" t="s">
         <v>51</v>
       </c>
       <c r="E25" s="6"/>
@@ -1582,7 +1725,7 @@
         <v>52</v>
       </c>
       <c r="C26" s="11"/>
-      <c r="D26" s="22"/>
+      <c r="D26" s="27"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
@@ -1592,7 +1735,7 @@
         <v>53</v>
       </c>
       <c r="C27" s="11"/>
-      <c r="D27" s="22"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
@@ -1602,7 +1745,7 @@
         <v>54</v>
       </c>
       <c r="C28" s="11"/>
-      <c r="D28" s="22"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
@@ -1612,7 +1755,7 @@
         <v>55</v>
       </c>
       <c r="C29" s="11"/>
-      <c r="D29" s="22"/>
+      <c r="D29" s="27"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
@@ -1622,7 +1765,7 @@
         <v>56</v>
       </c>
       <c r="C30" s="11"/>
-      <c r="D30" s="22"/>
+      <c r="D30" s="27"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
@@ -1632,7 +1775,7 @@
         <v>57</v>
       </c>
       <c r="C31" s="12"/>
-      <c r="D31" s="23"/>
+      <c r="D31" s="28"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
@@ -1647,7 +1790,7 @@
         <v>59</v>
       </c>
       <c r="C34" s="10"/>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="26" t="s">
         <v>51</v>
       </c>
       <c r="E34" s="6"/>
@@ -1659,7 +1802,7 @@
         <v>52</v>
       </c>
       <c r="C35" s="11"/>
-      <c r="D35" s="22"/>
+      <c r="D35" s="27"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
     </row>
@@ -1669,7 +1812,7 @@
         <v>53</v>
       </c>
       <c r="C36" s="11"/>
-      <c r="D36" s="22"/>
+      <c r="D36" s="27"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
     </row>
@@ -1679,7 +1822,7 @@
         <v>54</v>
       </c>
       <c r="C37" s="11"/>
-      <c r="D37" s="22"/>
+      <c r="D37" s="27"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
     </row>
@@ -1689,7 +1832,7 @@
         <v>55</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="22"/>
+      <c r="D38" s="27"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
     </row>
@@ -1699,7 +1842,7 @@
         <v>56</v>
       </c>
       <c r="C39" s="11"/>
-      <c r="D39" s="22"/>
+      <c r="D39" s="27"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
     </row>
@@ -1709,7 +1852,7 @@
         <v>57</v>
       </c>
       <c r="C40" s="12"/>
-      <c r="D40" s="23"/>
+      <c r="D40" s="28"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
     </row>
@@ -1778,7 +1921,7 @@
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="26" t="s">
         <v>63</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -1797,7 +1940,7 @@
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="6" t="s">
         <v>67</v>
       </c>
@@ -1812,7 +1955,7 @@
       <c r="B5" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="6" t="s">
         <v>70</v>
       </c>
@@ -1827,7 +1970,7 @@
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="22"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="6" t="s">
         <v>72</v>
       </c>
@@ -1844,7 +1987,7 @@
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="22"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="6" t="s">
         <v>64</v>
       </c>
@@ -1859,7 +2002,7 @@
       <c r="B8" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="22"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="6" t="s">
         <v>67</v>
       </c>
@@ -1876,7 +2019,7 @@
       <c r="B9" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="6" t="s">
         <v>70</v>
       </c>
@@ -1893,7 +2036,7 @@
       <c r="B10" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="6" t="s">
         <v>77</v>
       </c>
@@ -1918,7 +2061,7 @@
       <c r="B13" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="26" t="s">
         <v>81</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -1935,7 +2078,7 @@
       <c r="B14" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="6" t="s">
         <v>84</v>
       </c>
@@ -1948,7 +2091,7 @@
       <c r="B15" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="23"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="6" t="s">
         <v>86</v>
       </c>
@@ -1971,7 +2114,7 @@
       <c r="B18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="26" t="s">
         <v>63</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -1985,7 +2128,7 @@
       <c r="B19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="22"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="6" t="s">
         <v>88</v>
       </c>
@@ -1997,7 +2140,7 @@
       <c r="B20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="22"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="6" t="s">
         <v>89</v>
       </c>
@@ -2009,7 +2152,7 @@
       <c r="B21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="22"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="6" t="s">
         <v>41</v>
       </c>
@@ -2021,7 +2164,7 @@
       <c r="B22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="22"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="6" t="s">
         <v>90</v>
       </c>
@@ -2033,7 +2176,7 @@
       <c r="B23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="23"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="6" t="s">
         <v>45</v>
       </c>
@@ -2057,7 +2200,7 @@
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="31" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2070,7 +2213,7 @@
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
-      <c r="G27" s="26"/>
+      <c r="G27" s="32"/>
     </row>
     <row r="28" spans="1:7" s="16" customFormat="1">
       <c r="A28" s="18"/>
@@ -2081,7 +2224,7 @@
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
-      <c r="G28" s="26"/>
+      <c r="G28" s="32"/>
     </row>
     <row r="29" spans="1:7" s="16" customFormat="1">
       <c r="A29" s="18"/>
@@ -2092,7 +2235,7 @@
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
-      <c r="G29" s="26"/>
+      <c r="G29" s="32"/>
     </row>
     <row r="30" spans="1:7" s="16" customFormat="1">
       <c r="A30" s="18"/>
@@ -2103,7 +2246,7 @@
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
-      <c r="G30" s="26"/>
+      <c r="G30" s="32"/>
     </row>
     <row r="31" spans="1:7" s="16" customFormat="1">
       <c r="A31" s="18"/>
@@ -2114,7 +2257,7 @@
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
-      <c r="G31" s="26"/>
+      <c r="G31" s="32"/>
     </row>
     <row r="32" spans="1:7" s="16" customFormat="1">
       <c r="A32" s="18"/>
@@ -2125,17 +2268,17 @@
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
-      <c r="G32" s="26"/>
+      <c r="G32" s="32"/>
     </row>
     <row r="33" spans="1:7" s="16" customFormat="1">
       <c r="A33" s="17"/>
-      <c r="G33" s="26"/>
+      <c r="G33" s="32"/>
     </row>
     <row r="34" spans="1:7" s="16" customFormat="1">
       <c r="A34" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="G34" s="26"/>
+      <c r="G34" s="32"/>
     </row>
     <row r="35" spans="1:7" s="16" customFormat="1">
       <c r="A35" s="18"/>
@@ -2146,7 +2289,7 @@
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
-      <c r="G35" s="26"/>
+      <c r="G35" s="32"/>
     </row>
     <row r="36" spans="1:7" s="16" customFormat="1">
       <c r="A36" s="18"/>
@@ -2157,7 +2300,7 @@
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
-      <c r="G36" s="26"/>
+      <c r="G36" s="32"/>
     </row>
     <row r="37" spans="1:7" s="16" customFormat="1">
       <c r="A37" s="18"/>
@@ -2168,7 +2311,7 @@
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
-      <c r="G37" s="26"/>
+      <c r="G37" s="32"/>
     </row>
     <row r="38" spans="1:7" s="16" customFormat="1">
       <c r="A38" s="18"/>
@@ -2179,7 +2322,7 @@
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
-      <c r="G38" s="26"/>
+      <c r="G38" s="32"/>
     </row>
     <row r="39" spans="1:7" s="16" customFormat="1">
       <c r="A39" s="18"/>
@@ -2190,7 +2333,7 @@
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
-      <c r="G39" s="26"/>
+      <c r="G39" s="32"/>
     </row>
     <row r="40" spans="1:7" s="16" customFormat="1">
       <c r="A40" s="18"/>
@@ -2201,7 +2344,7 @@
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
-      <c r="G40" s="26"/>
+      <c r="G40" s="32"/>
     </row>
     <row r="41" spans="1:7" s="16" customFormat="1">
       <c r="A41" s="18"/>
@@ -2212,7 +2355,7 @@
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
-      <c r="G41" s="27"/>
+      <c r="G41" s="33"/>
     </row>
     <row r="42" spans="1:7" s="16" customFormat="1"/>
   </sheetData>
@@ -2486,17 +2629,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="32.83203125" customWidth="1"/>
+    <col min="3" max="3" width="55.6640625" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="68.6640625" customWidth="1"/>
+    <col min="5" max="5" width="84.6640625" customWidth="1"/>
     <col min="6" max="6" width="64.33203125" customWidth="1"/>
     <col min="7" max="7" width="46.6640625" customWidth="1"/>
     <col min="8" max="8" width="29.33203125" customWidth="1"/>
@@ -2530,37 +2673,37 @@
     </row>
     <row r="2" spans="1:8" ht="92" customHeight="1">
       <c r="B2" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>173</v>
+        <v>154</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>168</v>
       </c>
       <c r="D2" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="31" t="s">
-        <v>172</v>
+      <c r="E2" s="24" t="s">
+        <v>167</v>
       </c>
       <c r="F2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="29" customFormat="1" ht="20" customHeight="1">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29" t="s">
+    <row r="3" spans="1:8" s="22" customFormat="1" ht="20" customHeight="1">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="29" t="s">
-        <v>164</v>
+      <c r="G3" s="22" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" ht="20" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="23" t="s">
         <v>155</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -2571,21 +2714,21 @@
         <v>119</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="B6" t="s">
         <v>120</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="D6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>167</v>
+      <c r="D6" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="F6" t="s">
         <v>122</v>
@@ -2600,13 +2743,13 @@
         <v>124</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1"/>
     <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -2614,11 +2757,14 @@
       <c r="B10" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>171</v>
+      <c r="C10" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>172</v>
       </c>
       <c r="F10" t="s">
         <v>126</v>
@@ -2628,12 +2774,9 @@
       <c r="B11" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>171</v>
-      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
       <c r="F11" t="s">
         <v>126</v>
       </c>
@@ -2641,73 +2784,107 @@
     <row r="12" spans="1:8" ht="20" customHeight="1"/>
     <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="B14" t="s">
         <v>128</v>
       </c>
-      <c r="C14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14" t="s">
-        <v>130</v>
+      <c r="C14" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="B15" t="s">
-        <v>131</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="35"/>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="B16" t="s">
-        <v>132</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="35"/>
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1">
       <c r="B17" t="s">
-        <v>133</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="35"/>
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1">
       <c r="B18" t="s">
-        <v>134</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="35"/>
     </row>
     <row r="19" spans="1:7" ht="20" customHeight="1">
       <c r="B19" t="s">
-        <v>135</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="35"/>
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1">
       <c r="B20" t="s">
-        <v>136</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="35"/>
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1">
       <c r="B21" t="s">
-        <v>137</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C21" s="37"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="35"/>
     </row>
     <row r="22" spans="1:7" s="13" customFormat="1" ht="20" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>169</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="C22" s="25"/>
       <c r="G22" s="13" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1"/>
     <row r="24" spans="1:7" ht="20" customHeight="1"/>
     <row r="25" spans="1:7" ht="20" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="20" customHeight="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="37" customHeight="1">
       <c r="B26" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>174</v>
       </c>
       <c r="F26" t="s">
         <v>126</v>
@@ -2716,7 +2893,7 @@
     <row r="27" spans="1:7" ht="20" customHeight="1"/>
     <row r="28" spans="1:7" ht="20" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1">
@@ -2724,7 +2901,7 @@
         <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1">
@@ -2732,94 +2909,120 @@
         <v>40</v>
       </c>
       <c r="F30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="20" customHeight="1">
       <c r="B31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="13" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="14"/>
       <c r="B32" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1"/>
     <row r="34" spans="1:7" ht="20" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="58" customHeight="1">
       <c r="B35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="20" customHeight="1"/>
+    <row r="37" spans="1:7" ht="21" customHeight="1">
+      <c r="A37" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G35" s="15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="20" customHeight="1"/>
-    <row r="37" spans="1:7" ht="59" customHeight="1">
-      <c r="A37" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="G37" s="15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="20" customHeight="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="50" customHeight="1">
       <c r="B38" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="20" customHeight="1"/>
     <row r="40" spans="1:7" ht="20" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="20" customHeight="1">
       <c r="B41" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E41" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="20" customHeight="1">
       <c r="B42" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="20" customHeight="1">
       <c r="B43" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="20" customHeight="1">
       <c r="B44" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="20" customHeight="1"/>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D14:D21"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E14:E21"/>
+    <mergeCell ref="C14:C21"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+  </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2866,7 +3069,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2874,8 +3077,8 @@
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>153</v>
+      <c r="C3" s="29" t="s">
+        <v>151</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>9</v>
@@ -2890,7 +3093,7 @@
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
@@ -2904,7 +3107,7 @@
       <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
@@ -2918,7 +3121,7 @@
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="24"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
@@ -2932,8 +3135,8 @@
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>154</v>
+      <c r="C7" s="26" t="s">
+        <v>152</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>23</v>
@@ -2948,7 +3151,7 @@
       <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="22"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="6" t="s">
         <v>26</v>
       </c>
@@ -2962,7 +3165,7 @@
       <c r="B9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="6" t="s">
         <v>29</v>
       </c>
@@ -2976,7 +3179,7 @@
       <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="6" t="s">
         <v>32</v>
       </c>
@@ -3000,8 +3203,8 @@
       <c r="B13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>153</v>
+      <c r="C13" s="26" t="s">
+        <v>151</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>36</v>
@@ -3014,7 +3217,7 @@
       <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="6" t="s">
         <v>32</v>
       </c>
@@ -3026,7 +3229,7 @@
       <c r="B15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="6" t="s">
         <v>39</v>
       </c>
@@ -3038,7 +3241,7 @@
       <c r="B16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="22"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="6" t="s">
         <v>41</v>
       </c>
@@ -3050,7 +3253,7 @@
       <c r="B17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="22"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="6" t="s">
         <v>43</v>
       </c>
@@ -3062,7 +3265,7 @@
       <c r="B18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="23"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="6" t="s">
         <v>45</v>
       </c>
@@ -3079,8 +3282,8 @@
       <c r="B21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>154</v>
+      <c r="C21" s="26" t="s">
+        <v>152</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>47</v>
@@ -3092,7 +3295,7 @@
       <c r="B22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="23"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="6" t="s">
         <v>48</v>
       </c>
@@ -3113,7 +3316,7 @@
         <v>50</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="26" t="s">
         <v>51</v>
       </c>
       <c r="E25" s="6"/>
@@ -3125,7 +3328,7 @@
         <v>52</v>
       </c>
       <c r="C26" s="11"/>
-      <c r="D26" s="22"/>
+      <c r="D26" s="27"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
@@ -3135,7 +3338,7 @@
         <v>53</v>
       </c>
       <c r="C27" s="11"/>
-      <c r="D27" s="22"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
@@ -3145,7 +3348,7 @@
         <v>54</v>
       </c>
       <c r="C28" s="11"/>
-      <c r="D28" s="22"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
@@ -3155,7 +3358,7 @@
         <v>55</v>
       </c>
       <c r="C29" s="11"/>
-      <c r="D29" s="22"/>
+      <c r="D29" s="27"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
@@ -3165,7 +3368,7 @@
         <v>56</v>
       </c>
       <c r="C30" s="11"/>
-      <c r="D30" s="22"/>
+      <c r="D30" s="27"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
@@ -3175,7 +3378,7 @@
         <v>57</v>
       </c>
       <c r="C31" s="12"/>
-      <c r="D31" s="23"/>
+      <c r="D31" s="28"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
@@ -3190,7 +3393,7 @@
         <v>59</v>
       </c>
       <c r="C34" s="10"/>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="26" t="s">
         <v>51</v>
       </c>
       <c r="E34" s="6"/>
@@ -3202,7 +3405,7 @@
         <v>52</v>
       </c>
       <c r="C35" s="11"/>
-      <c r="D35" s="22"/>
+      <c r="D35" s="27"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
     </row>
@@ -3212,7 +3415,7 @@
         <v>53</v>
       </c>
       <c r="C36" s="11"/>
-      <c r="D36" s="22"/>
+      <c r="D36" s="27"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
     </row>
@@ -3222,7 +3425,7 @@
         <v>54</v>
       </c>
       <c r="C37" s="11"/>
-      <c r="D37" s="22"/>
+      <c r="D37" s="27"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
     </row>
@@ -3232,7 +3435,7 @@
         <v>55</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="22"/>
+      <c r="D38" s="27"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
     </row>
@@ -3242,7 +3445,7 @@
         <v>56</v>
       </c>
       <c r="C39" s="11"/>
-      <c r="D39" s="22"/>
+      <c r="D39" s="27"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
     </row>
@@ -3252,7 +3455,7 @@
         <v>57</v>
       </c>
       <c r="C40" s="12"/>
-      <c r="D40" s="23"/>
+      <c r="D40" s="28"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
     </row>

--- a/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/烟机工业数字大脑-2024-06-17.xlsx
+++ b/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/烟机工业数字大脑-2024-06-17.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangzuogong/IdeaProjects/ike-date/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9F30FD-5FCB-4547-BEC9-0A598534A544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FAF258-6E1F-6C44-BC5E-AE66BAD418D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外协订单指标" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="178">
   <si>
     <t>模块</t>
   </si>
@@ -355,9 +355,6 @@
   </si>
   <si>
     <t>逾期订单行号总数-较上（周）</t>
-  </si>
-  <si>
-    <t>逻辑（上周还是上年）</t>
   </si>
   <si>
     <t>外协+自加工+外购/现有订单行总行数</t>
@@ -946,7 +943,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1063,6 +1060,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1428,7 +1428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C7" sqref="C7:C10"/>
     </sheetView>
   </sheetViews>
@@ -1533,7 +1533,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>23</v>
@@ -1874,7 +1874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -2375,7 +2375,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.33203125" defaultRowHeight="14"/>
@@ -2433,9 +2433,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="10" t="s">
-        <v>100</v>
-      </c>
+      <c r="G4" s="39"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5"/>
@@ -2446,9 +2444,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="10" t="s">
-        <v>100</v>
-      </c>
+      <c r="G5" s="39"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5"/>
@@ -2461,7 +2457,7 @@
         <v>101</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="10"/>
+      <c r="G6" s="39"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5"/>
@@ -2472,9 +2468,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="10" t="s">
-        <v>100</v>
-      </c>
+      <c r="G7" s="39"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5"/>
@@ -2485,9 +2479,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="10" t="s">
-        <v>106</v>
-      </c>
+      <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5"/>
@@ -2497,10 +2489,10 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="G9" s="39"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5"/>
@@ -2510,88 +2502,76 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="G10" s="39"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="10" t="s">
-        <v>100</v>
-      </c>
+      <c r="G11" s="39"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="10" t="s">
-        <v>100</v>
-      </c>
+      <c r="G12" s="39"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="10" t="s">
-        <v>100</v>
-      </c>
+      <c r="G13" s="39"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="10" t="s">
-        <v>100</v>
-      </c>
+      <c r="G14" s="39"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="10" t="s">
-        <v>100</v>
-      </c>
+      <c r="G15" s="39"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="10" t="s">
-        <v>100</v>
-      </c>
+      <c r="G16" s="39"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="6"/>
@@ -2601,7 +2581,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="11"/>
@@ -2614,7 +2594,7 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="12"/>
@@ -2629,7 +2609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="111" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="111" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -2668,142 +2648,142 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="92" customHeight="1">
       <c r="B2" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" t="s">
         <v>115</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="F2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="22" customFormat="1" ht="20" customHeight="1">
       <c r="A3" s="21"/>
       <c r="B3" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" ht="20" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="B5" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" t="s">
         <v>118</v>
       </c>
-      <c r="F5" t="s">
-        <v>119</v>
-      </c>
       <c r="G5" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="D6" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" t="s">
         <v>121</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="F6" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="13" customFormat="1" ht="20" customHeight="1">
       <c r="A7" s="14"/>
       <c r="B7" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>124</v>
-      </c>
       <c r="G7" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1"/>
     <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10"/>
       <c r="B10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" t="s">
         <v>125</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="F10" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="B11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="37"/>
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1"/>
     <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="B14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="B15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="36"/>
@@ -2811,7 +2791,7 @@
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="B16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C16" s="37"/>
       <c r="D16" s="36"/>
@@ -2819,7 +2799,7 @@
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1">
       <c r="B17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="36"/>
@@ -2827,7 +2807,7 @@
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1">
       <c r="B18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" s="37"/>
       <c r="D18" s="36"/>
@@ -2835,7 +2815,7 @@
     </row>
     <row r="19" spans="1:7" ht="20" customHeight="1">
       <c r="B19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19" s="37"/>
       <c r="D19" s="36"/>
@@ -2843,7 +2823,7 @@
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1">
       <c r="B20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" s="37"/>
       <c r="D20" s="36"/>
@@ -2851,7 +2831,7 @@
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1">
       <c r="B21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" s="37"/>
       <c r="D21" s="36"/>
@@ -2859,41 +2839,41 @@
     </row>
     <row r="22" spans="1:7" s="13" customFormat="1" ht="20" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C22" s="25"/>
       <c r="G22" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1"/>
     <row r="24" spans="1:7" ht="20" customHeight="1"/>
     <row r="25" spans="1:7" ht="20" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="37" customHeight="1">
       <c r="B26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D26" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="E26" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="E26" s="24" t="s">
-        <v>174</v>
-      </c>
       <c r="F26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1"/>
     <row r="28" spans="1:7" ht="20" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1">
@@ -2901,7 +2881,7 @@
         <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1">
@@ -2909,108 +2889,108 @@
         <v>40</v>
       </c>
       <c r="F30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="20" customHeight="1">
       <c r="B31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="13" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="14"/>
       <c r="B32" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1"/>
     <row r="34" spans="1:7" ht="20" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="58" customHeight="1">
       <c r="B35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="G35" s="15" t="s">
         <v>141</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1"/>
     <row r="37" spans="1:7" ht="21" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="50" customHeight="1">
       <c r="B38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="20" customHeight="1"/>
     <row r="40" spans="1:7" ht="20" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="20" customHeight="1">
       <c r="B41" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41" t="s">
         <v>145</v>
       </c>
-      <c r="E41" t="s">
-        <v>146</v>
-      </c>
       <c r="G41" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="20" customHeight="1">
       <c r="B42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="20" customHeight="1">
       <c r="B43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="20" customHeight="1">
       <c r="B44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="20" customHeight="1"/>
@@ -3033,8 +3013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
@@ -3069,7 +3049,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3078,7 +3058,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>9</v>
@@ -3136,7 +3116,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>23</v>
@@ -3204,7 +3184,7 @@
         <v>35</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>36</v>
@@ -3283,7 +3263,7 @@
         <v>38</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>47</v>

--- a/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/烟机工业数字大脑-2024-06-17.xlsx
+++ b/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/烟机工业数字大脑-2024-06-17.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangzuogong/IdeaProjects/ike-date/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FAF258-6E1F-6C44-BC5E-AE66BAD418D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86F697E-D424-F749-8E57-9501C3F32C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外协订单指标" sheetId="3" r:id="rId1"/>
@@ -399,9 +399,6 @@
     <t>准入供应商数量</t>
   </si>
   <si>
-    <t xml:space="preserve">ODS_SRM.dbo.srm_mgt_access </t>
-  </si>
-  <si>
     <t>srm-&gt;供应商生命周期-》准入供应商</t>
   </si>
   <si>
@@ -571,47 +568,6 @@
   </si>
   <si>
     <t>ODS_HANA.dbo.digital_brain_purchase_plan_amount</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  select SUPPLIER_ID
-                            ,CONVERT(DATE, created_ts) supplier_created_date
-                            ,CASE
-                                 WHEN CHARINDEX('(', supplier_level) &gt; 0
-                                 THEN SUBSTRING(supplier_level, 1, CHARINDEX('(', supplier_level) - 1)
-                             ELSE supplier_level
-                             END AS supplier_level      
-                       from ODS_SRM.dbo.srm_mgt_access a
-                      where supplier_level is not null 
-                        and purchaser_id = 'BUYER0000000001'
-                        and supplier_type like '%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>外</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>%'
-                      GROUP by SUPPLIER_ID
-                             ,CASE
-                                   WHEN CHARINDEX('(', supplier_level) &gt; 0
-                                   THEN SUBSTRING(supplier_level, 1, CHARINDEX('(', supplier_level) - 1)
-                              ELSE supplier_level END
-                             ,CONVERT(DATE, created_ts)</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>SUPPLIER_ID</t>
@@ -711,6 +667,15 @@
 		       ,category_type_name
          </t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">select count(1) from base_preparation_supplier_enter_info
+where supplier_created_date &gt;= CAST(YEAR(GETDATE()) AS VARCHAR(4)) + '-01-01'   
+ AND supplier_created_date&lt;=CONVERT(DATE, GETDATE()) </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_preparation_supplier_enter_info</t>
   </si>
 </sst>
 </file>
@@ -1022,6 +987,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1046,22 +1017,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1472,7 +1437,7 @@
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -1490,7 +1455,7 @@
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="29"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
@@ -1504,7 +1469,7 @@
       <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="29"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
@@ -1518,7 +1483,7 @@
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="29"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
@@ -1532,8 +1497,8 @@
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>165</v>
+      <c r="C7" s="32" t="s">
+        <v>164</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>23</v>
@@ -1548,7 +1513,7 @@
       <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="27"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="6" t="s">
         <v>26</v>
       </c>
@@ -1562,7 +1527,7 @@
       <c r="B9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="6" t="s">
         <v>29</v>
       </c>
@@ -1576,7 +1541,7 @@
       <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="6" t="s">
         <v>32</v>
       </c>
@@ -1600,7 +1565,7 @@
       <c r="B13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -1614,7 +1579,7 @@
       <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="27"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="6" t="s">
         <v>32</v>
       </c>
@@ -1626,7 +1591,7 @@
       <c r="B15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="6" t="s">
         <v>39</v>
       </c>
@@ -1638,7 +1603,7 @@
       <c r="B16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="6" t="s">
         <v>41</v>
       </c>
@@ -1650,7 +1615,7 @@
       <c r="B17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="6" t="s">
         <v>43</v>
       </c>
@@ -1662,7 +1627,7 @@
       <c r="B18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="28"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="6" t="s">
         <v>45</v>
       </c>
@@ -1679,7 +1644,7 @@
       <c r="B21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="28" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -1692,7 +1657,7 @@
       <c r="B22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="28"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="6" t="s">
         <v>48</v>
       </c>
@@ -1713,7 +1678,7 @@
         <v>50</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="28" t="s">
         <v>51</v>
       </c>
       <c r="E25" s="6"/>
@@ -1725,7 +1690,7 @@
         <v>52</v>
       </c>
       <c r="C26" s="11"/>
-      <c r="D26" s="27"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
@@ -1735,7 +1700,7 @@
         <v>53</v>
       </c>
       <c r="C27" s="11"/>
-      <c r="D27" s="27"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
@@ -1745,7 +1710,7 @@
         <v>54</v>
       </c>
       <c r="C28" s="11"/>
-      <c r="D28" s="27"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
@@ -1755,7 +1720,7 @@
         <v>55</v>
       </c>
       <c r="C29" s="11"/>
-      <c r="D29" s="27"/>
+      <c r="D29" s="29"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
@@ -1765,7 +1730,7 @@
         <v>56</v>
       </c>
       <c r="C30" s="11"/>
-      <c r="D30" s="27"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
@@ -1775,7 +1740,7 @@
         <v>57</v>
       </c>
       <c r="C31" s="12"/>
-      <c r="D31" s="28"/>
+      <c r="D31" s="30"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
@@ -1790,7 +1755,7 @@
         <v>59</v>
       </c>
       <c r="C34" s="10"/>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="28" t="s">
         <v>51</v>
       </c>
       <c r="E34" s="6"/>
@@ -1802,7 +1767,7 @@
         <v>52</v>
       </c>
       <c r="C35" s="11"/>
-      <c r="D35" s="27"/>
+      <c r="D35" s="29"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
     </row>
@@ -1812,7 +1777,7 @@
         <v>53</v>
       </c>
       <c r="C36" s="11"/>
-      <c r="D36" s="27"/>
+      <c r="D36" s="29"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
     </row>
@@ -1822,7 +1787,7 @@
         <v>54</v>
       </c>
       <c r="C37" s="11"/>
-      <c r="D37" s="27"/>
+      <c r="D37" s="29"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
     </row>
@@ -1832,7 +1797,7 @@
         <v>55</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="27"/>
+      <c r="D38" s="29"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
     </row>
@@ -1842,7 +1807,7 @@
         <v>56</v>
       </c>
       <c r="C39" s="11"/>
-      <c r="D39" s="27"/>
+      <c r="D39" s="29"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
     </row>
@@ -1852,7 +1817,7 @@
         <v>57</v>
       </c>
       <c r="C40" s="12"/>
-      <c r="D40" s="28"/>
+      <c r="D40" s="30"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
     </row>
@@ -1874,7 +1839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -1921,7 +1886,7 @@
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="28" t="s">
         <v>63</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -1940,7 +1905,7 @@
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="6" t="s">
         <v>67</v>
       </c>
@@ -1955,7 +1920,7 @@
       <c r="B5" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="6" t="s">
         <v>70</v>
       </c>
@@ -1970,7 +1935,7 @@
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="6" t="s">
         <v>72</v>
       </c>
@@ -1987,7 +1952,7 @@
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="6" t="s">
         <v>64</v>
       </c>
@@ -2002,7 +1967,7 @@
       <c r="B8" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="27"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="6" t="s">
         <v>67</v>
       </c>
@@ -2019,7 +1984,7 @@
       <c r="B9" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="6" t="s">
         <v>70</v>
       </c>
@@ -2036,7 +2001,7 @@
       <c r="B10" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="6" t="s">
         <v>77</v>
       </c>
@@ -2061,7 +2026,7 @@
       <c r="B13" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="28" t="s">
         <v>81</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -2078,7 +2043,7 @@
       <c r="B14" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="27"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="6" t="s">
         <v>84</v>
       </c>
@@ -2091,7 +2056,7 @@
       <c r="B15" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="28"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="6" t="s">
         <v>86</v>
       </c>
@@ -2114,7 +2079,7 @@
       <c r="B18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="28" t="s">
         <v>63</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -2128,7 +2093,7 @@
       <c r="B19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="6" t="s">
         <v>88</v>
       </c>
@@ -2140,7 +2105,7 @@
       <c r="B20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="27"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="6" t="s">
         <v>89</v>
       </c>
@@ -2152,7 +2117,7 @@
       <c r="B21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="27"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="6" t="s">
         <v>41</v>
       </c>
@@ -2164,7 +2129,7 @@
       <c r="B22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="27"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="6" t="s">
         <v>90</v>
       </c>
@@ -2176,7 +2141,7 @@
       <c r="B23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="28"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="6" t="s">
         <v>45</v>
       </c>
@@ -2200,7 +2165,7 @@
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
-      <c r="G26" s="31" t="s">
+      <c r="G26" s="33" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2213,7 +2178,7 @@
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
-      <c r="G27" s="32"/>
+      <c r="G27" s="34"/>
     </row>
     <row r="28" spans="1:7" s="16" customFormat="1">
       <c r="A28" s="18"/>
@@ -2224,7 +2189,7 @@
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
-      <c r="G28" s="32"/>
+      <c r="G28" s="34"/>
     </row>
     <row r="29" spans="1:7" s="16" customFormat="1">
       <c r="A29" s="18"/>
@@ -2235,7 +2200,7 @@
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
-      <c r="G29" s="32"/>
+      <c r="G29" s="34"/>
     </row>
     <row r="30" spans="1:7" s="16" customFormat="1">
       <c r="A30" s="18"/>
@@ -2246,7 +2211,7 @@
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
-      <c r="G30" s="32"/>
+      <c r="G30" s="34"/>
     </row>
     <row r="31" spans="1:7" s="16" customFormat="1">
       <c r="A31" s="18"/>
@@ -2257,7 +2222,7 @@
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
-      <c r="G31" s="32"/>
+      <c r="G31" s="34"/>
     </row>
     <row r="32" spans="1:7" s="16" customFormat="1">
       <c r="A32" s="18"/>
@@ -2268,17 +2233,17 @@
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
-      <c r="G32" s="32"/>
+      <c r="G32" s="34"/>
     </row>
     <row r="33" spans="1:7" s="16" customFormat="1">
       <c r="A33" s="17"/>
-      <c r="G33" s="32"/>
+      <c r="G33" s="34"/>
     </row>
     <row r="34" spans="1:7" s="16" customFormat="1">
       <c r="A34" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="G34" s="32"/>
+      <c r="G34" s="34"/>
     </row>
     <row r="35" spans="1:7" s="16" customFormat="1">
       <c r="A35" s="18"/>
@@ -2289,7 +2254,7 @@
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
-      <c r="G35" s="32"/>
+      <c r="G35" s="34"/>
     </row>
     <row r="36" spans="1:7" s="16" customFormat="1">
       <c r="A36" s="18"/>
@@ -2300,7 +2265,7 @@
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
-      <c r="G36" s="32"/>
+      <c r="G36" s="34"/>
     </row>
     <row r="37" spans="1:7" s="16" customFormat="1">
       <c r="A37" s="18"/>
@@ -2311,7 +2276,7 @@
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
-      <c r="G37" s="32"/>
+      <c r="G37" s="34"/>
     </row>
     <row r="38" spans="1:7" s="16" customFormat="1">
       <c r="A38" s="18"/>
@@ -2322,7 +2287,7 @@
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
-      <c r="G38" s="32"/>
+      <c r="G38" s="34"/>
     </row>
     <row r="39" spans="1:7" s="16" customFormat="1">
       <c r="A39" s="18"/>
@@ -2333,7 +2298,7 @@
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
-      <c r="G39" s="32"/>
+      <c r="G39" s="34"/>
     </row>
     <row r="40" spans="1:7" s="16" customFormat="1">
       <c r="A40" s="18"/>
@@ -2344,7 +2309,7 @@
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
-      <c r="G40" s="32"/>
+      <c r="G40" s="34"/>
     </row>
     <row r="41" spans="1:7" s="16" customFormat="1">
       <c r="A41" s="18"/>
@@ -2355,7 +2320,7 @@
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
-      <c r="G41" s="33"/>
+      <c r="G41" s="35"/>
     </row>
     <row r="42" spans="1:7" s="16" customFormat="1"/>
   </sheetData>
@@ -2433,7 +2398,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="39"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5"/>
@@ -2444,7 +2409,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="39"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5"/>
@@ -2457,7 +2422,7 @@
         <v>101</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="39"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5"/>
@@ -2468,7 +2433,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="39"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5"/>
@@ -2479,7 +2444,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="39"/>
+      <c r="G8" s="27"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5"/>
@@ -2492,7 +2457,7 @@
         <v>106</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="39"/>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5"/>
@@ -2505,7 +2470,7 @@
         <v>106</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="39"/>
+      <c r="G10" s="27"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5"/>
@@ -2516,7 +2481,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="39"/>
+      <c r="G11" s="27"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="6"/>
@@ -2527,7 +2492,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="39"/>
+      <c r="G12" s="27"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="6"/>
@@ -2538,7 +2503,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="39"/>
+      <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="6"/>
@@ -2549,7 +2514,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="39"/>
+      <c r="G14" s="27"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="6"/>
@@ -2560,7 +2525,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="39"/>
+      <c r="G15" s="27"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="6"/>
@@ -2571,7 +2536,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="39"/>
+      <c r="G16" s="27"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="6"/>
@@ -2609,8 +2574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
@@ -2653,16 +2618,16 @@
     </row>
     <row r="2" spans="1:8" ht="92" customHeight="1">
       <c r="B2" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s">
         <v>114</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F2" t="s">
         <v>115</v>
@@ -2674,16 +2639,16 @@
         <v>116</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" ht="20" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -2694,7 +2659,7 @@
         <v>118</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -2702,178 +2667,178 @@
         <v>119</v>
       </c>
       <c r="C6" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6" t="s">
         <v>120</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="F6" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="13" customFormat="1" ht="20" customHeight="1">
       <c r="A7" s="14"/>
       <c r="B7" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>123</v>
-      </c>
       <c r="G7" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1"/>
     <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10"/>
       <c r="B10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" t="s">
         <v>124</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="F10" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="B11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
+        <v>125</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1"/>
     <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="B14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>170</v>
+        <v>126</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>168</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="B15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" s="37"/>
+        <v>127</v>
+      </c>
+      <c r="C15" s="38"/>
       <c r="D15" s="36"/>
-      <c r="E15" s="35"/>
+      <c r="E15" s="39"/>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="B16" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="37"/>
+        <v>128</v>
+      </c>
+      <c r="C16" s="38"/>
       <c r="D16" s="36"/>
-      <c r="E16" s="35"/>
+      <c r="E16" s="39"/>
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1">
       <c r="B17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" s="37"/>
+        <v>129</v>
+      </c>
+      <c r="C17" s="38"/>
       <c r="D17" s="36"/>
-      <c r="E17" s="35"/>
+      <c r="E17" s="39"/>
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1">
       <c r="B18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="37"/>
+        <v>130</v>
+      </c>
+      <c r="C18" s="38"/>
       <c r="D18" s="36"/>
-      <c r="E18" s="35"/>
+      <c r="E18" s="39"/>
     </row>
     <row r="19" spans="1:7" ht="20" customHeight="1">
       <c r="B19" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="37"/>
+        <v>131</v>
+      </c>
+      <c r="C19" s="38"/>
       <c r="D19" s="36"/>
-      <c r="E19" s="35"/>
+      <c r="E19" s="39"/>
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1">
       <c r="B20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C20" s="37"/>
+        <v>132</v>
+      </c>
+      <c r="C20" s="38"/>
       <c r="D20" s="36"/>
-      <c r="E20" s="35"/>
+      <c r="E20" s="39"/>
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1">
       <c r="B21" t="s">
-        <v>134</v>
-      </c>
-      <c r="C21" s="37"/>
+        <v>133</v>
+      </c>
+      <c r="C21" s="38"/>
       <c r="D21" s="36"/>
-      <c r="E21" s="35"/>
+      <c r="E21" s="39"/>
     </row>
     <row r="22" spans="1:7" s="13" customFormat="1" ht="20" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C22" s="25"/>
       <c r="G22" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1"/>
     <row r="24" spans="1:7" ht="20" customHeight="1"/>
     <row r="25" spans="1:7" ht="20" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="37" customHeight="1">
       <c r="B26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="D26" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="D26" s="24" t="s">
-        <v>172</v>
-      </c>
       <c r="E26" s="24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1"/>
     <row r="28" spans="1:7" ht="20" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1">
@@ -2881,7 +2846,7 @@
         <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1">
@@ -2889,108 +2854,108 @@
         <v>40</v>
       </c>
       <c r="F30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="20" customHeight="1">
       <c r="B31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="13" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="14"/>
       <c r="B32" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1"/>
     <row r="34" spans="1:7" ht="20" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="58" customHeight="1">
       <c r="B35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="G35" s="15" t="s">
         <v>140</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1"/>
     <row r="37" spans="1:7" ht="21" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="50" customHeight="1">
       <c r="B38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C38" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="D38" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="D38" s="24" t="s">
-        <v>172</v>
-      </c>
       <c r="E38" s="24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="20" customHeight="1"/>
     <row r="40" spans="1:7" ht="20" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="20" customHeight="1">
       <c r="B41" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41" t="s">
         <v>144</v>
       </c>
-      <c r="E41" t="s">
-        <v>145</v>
-      </c>
       <c r="G41" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="20" customHeight="1">
       <c r="B42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="20" customHeight="1">
       <c r="B43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="20" customHeight="1">
       <c r="B44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="20" customHeight="1"/>
@@ -3049,7 +3014,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3057,8 +3022,8 @@
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>150</v>
+      <c r="C3" s="31" t="s">
+        <v>149</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>9</v>
@@ -3073,7 +3038,7 @@
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="29"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
@@ -3087,7 +3052,7 @@
       <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="29"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
@@ -3101,7 +3066,7 @@
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="29"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
@@ -3115,8 +3080,8 @@
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>151</v>
+      <c r="C7" s="28" t="s">
+        <v>150</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>23</v>
@@ -3131,7 +3096,7 @@
       <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="27"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="6" t="s">
         <v>26</v>
       </c>
@@ -3145,7 +3110,7 @@
       <c r="B9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="6" t="s">
         <v>29</v>
       </c>
@@ -3159,7 +3124,7 @@
       <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="6" t="s">
         <v>32</v>
       </c>
@@ -3183,8 +3148,8 @@
       <c r="B13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>150</v>
+      <c r="C13" s="28" t="s">
+        <v>149</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>36</v>
@@ -3197,7 +3162,7 @@
       <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="27"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="6" t="s">
         <v>32</v>
       </c>
@@ -3209,7 +3174,7 @@
       <c r="B15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="6" t="s">
         <v>39</v>
       </c>
@@ -3221,7 +3186,7 @@
       <c r="B16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="6" t="s">
         <v>41</v>
       </c>
@@ -3233,7 +3198,7 @@
       <c r="B17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="6" t="s">
         <v>43</v>
       </c>
@@ -3245,7 +3210,7 @@
       <c r="B18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="28"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="6" t="s">
         <v>45</v>
       </c>
@@ -3262,8 +3227,8 @@
       <c r="B21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>151</v>
+      <c r="C21" s="28" t="s">
+        <v>150</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>47</v>
@@ -3275,7 +3240,7 @@
       <c r="B22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="28"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="6" t="s">
         <v>48</v>
       </c>
@@ -3296,7 +3261,7 @@
         <v>50</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="28" t="s">
         <v>51</v>
       </c>
       <c r="E25" s="6"/>
@@ -3308,7 +3273,7 @@
         <v>52</v>
       </c>
       <c r="C26" s="11"/>
-      <c r="D26" s="27"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
@@ -3318,7 +3283,7 @@
         <v>53</v>
       </c>
       <c r="C27" s="11"/>
-      <c r="D27" s="27"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
@@ -3328,7 +3293,7 @@
         <v>54</v>
       </c>
       <c r="C28" s="11"/>
-      <c r="D28" s="27"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
@@ -3338,7 +3303,7 @@
         <v>55</v>
       </c>
       <c r="C29" s="11"/>
-      <c r="D29" s="27"/>
+      <c r="D29" s="29"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
@@ -3348,7 +3313,7 @@
         <v>56</v>
       </c>
       <c r="C30" s="11"/>
-      <c r="D30" s="27"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
@@ -3358,7 +3323,7 @@
         <v>57</v>
       </c>
       <c r="C31" s="12"/>
-      <c r="D31" s="28"/>
+      <c r="D31" s="30"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
@@ -3373,7 +3338,7 @@
         <v>59</v>
       </c>
       <c r="C34" s="10"/>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="28" t="s">
         <v>51</v>
       </c>
       <c r="E34" s="6"/>
@@ -3385,7 +3350,7 @@
         <v>52</v>
       </c>
       <c r="C35" s="11"/>
-      <c r="D35" s="27"/>
+      <c r="D35" s="29"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
     </row>
@@ -3395,7 +3360,7 @@
         <v>53</v>
       </c>
       <c r="C36" s="11"/>
-      <c r="D36" s="27"/>
+      <c r="D36" s="29"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
     </row>
@@ -3405,7 +3370,7 @@
         <v>54</v>
       </c>
       <c r="C37" s="11"/>
-      <c r="D37" s="27"/>
+      <c r="D37" s="29"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
     </row>
@@ -3415,7 +3380,7 @@
         <v>55</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="27"/>
+      <c r="D38" s="29"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
     </row>
@@ -3425,7 +3390,7 @@
         <v>56</v>
       </c>
       <c r="C39" s="11"/>
-      <c r="D39" s="27"/>
+      <c r="D39" s="29"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
     </row>
@@ -3435,7 +3400,7 @@
         <v>57</v>
       </c>
       <c r="C40" s="12"/>
-      <c r="D40" s="28"/>
+      <c r="D40" s="30"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
     </row>

--- a/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/烟机工业数字大脑-2024-06-17.xlsx
+++ b/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/烟机工业数字大脑-2024-06-17.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangzuogong/IdeaProjects/ike-date/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86F697E-D424-F749-8E57-9501C3F32C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="外协订单指标" sheetId="3" r:id="rId1"/>
@@ -37,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="184">
   <si>
     <t>模块</t>
   </si>
@@ -186,13 +180,21 @@
     <t>an_j_finish_cnt/j_cnt</t>
   </si>
   <si>
-    <t>外购节点漏斗图</t>
-  </si>
-  <si>
-    <t>采购申请</t>
-  </si>
-  <si>
-    <t>冼秋婷-&gt;逻辑</t>
+    <t>采购流程</t>
+  </si>
+  <si>
+    <t>采购申请（当前数量，平均周期，新增数量，消耗数量）</t>
+  </si>
+  <si>
+    <t>ODS_HANA.dbo.digital_brain_outbuy_step_req</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    select
+        count(1)  -- 当前数量
+    ,sum( case when CONVERT(VARCHAR(7),BEDAT, 120) = CONVERT(VARCHAR(7),CONVERT(DATE, GETDATE()),  120) then day_cnt else null end )/count(case when CONVERT(VARCHAR(7),BEDAT, 120) = CONVERT(VARCHAR(7),CONVERT(DATE, GETDATE()),120) then EBELN else null end )
+       ,count(case when a.min_udate = CONVERT(DATE, GETDATE()) then 1 else null end ) -- 日新增数量
+       ,count(case when a.min_udate = CONVERT(DATE, GETDATE()) and day_cnt = 0 then 1 else null end )  -- 日消耗数量
+      from ODS_HANA.dbo.digital_brain_outbuy_step_req a</t>
   </si>
   <si>
     <t>寻源</t>
@@ -201,22 +203,67 @@
     <t>订单下达</t>
   </si>
   <si>
+    <t>ODS_HANA.dbo.digital_brain_outbuy_step_ord</t>
+  </si>
+  <si>
+    <t>select count(1) -- 当前数量
+      ,sum(day_cnt)/count(1) -- 本月平均周期（月度？）
+      ,count(case when create_date = CONVERT(DATE, GETDATE()) then 1 else null end ) d -- 日新增数量
+      ,count(case when create_date = CONVERT(DATE, GETDATE()) and day_cnt = 0 then 1 else null end ) d -- 日消耗数量
+  from digital_brain_outbuy_step_ord</t>
+  </si>
+  <si>
     <t>物资配送</t>
   </si>
   <si>
+    <t>ODS_HANA.dbo.digital_brain_outbuy_step_delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> select count(DISTINCT  delivery_req)
+            ,sum( case when CONVERT(VARCHAR(7),create_date, 120) = CONVERT(VARCHAR(7),CONVERT(DATE, GETDATE()),  120) then day_cnt else null end )/count(case when CONVERT(VARCHAR(7),create_date, 120) = CONVERT(VARCHAR(7),CONVERT(DATE, GETDATE()),120) then day_cnt else null end )
+            ,count(DISTINCT case when create_date = CONVERT(DATE, GETDATE()-1) then delivery_req else null end )   -- 日新增数量
+            ,count(DISTINCT case when create_date = CONVERT(DATE, GETDATE()-1) and day_cnt=0 then 1 else null end ) -- 日消耗数量
+       from ODS_HANA.dbo.digital_brain_outbuy_step_delivery</t>
+  </si>
+  <si>
     <t>质检</t>
   </si>
   <si>
+    <t>ODS_HANA.dbo.digital_brain_outbuy_step_warehouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      select count( distinct order_item_id)
+                ,sum(case when CONVERT(VARCHAR(7),chech_time, 120) = CONVERT(VARCHAR(7),CONVERT(DATE, GETDATE()),  120) then day_cnt else null end)/count(case when CONVERT(VARCHAR(7),chech_time, 120) = CONVERT(VARCHAR(7),CONVERT(DATE, GETDATE()),  120) then day_cnt else null end)
+                ,count(distinct case when CONVERT(DATE, chech_time) = CONVERT(DATE, GETDATE()-1) then order_item_id else null end ) -- 日新增数量
+                ,count(distinct case when CONVERT(DATE, migo_time) = CONVERT(DATE, GETDATE()-1) and day_cnt =0 then order_item_id else null end )  -- 日消耗数量
+            from ODS_HANA.dbo.digital_brain_outbuy_step_warehouse</t>
+  </si>
+  <si>
     <t>入库</t>
   </si>
   <si>
+    <t>ODS_HANA.dbo.digital_brain_outbuy_step_inspection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     select   count( distinct order_item_num)
+             ,sum(case when CONVERT(VARCHAR(7),create_date_time, 120) = CONVERT(VARCHAR(7),CONVERT(DATE, GETDATE()),  120) then day_cnt else null end)/count(case when CONVERT(VARCHAR(7),create_date_time, 120) = CONVERT(VARCHAR(7),CONVERT(DATE, GETDATE()),  120) then quantity else null end)
+             ,count(distinct case when CONVERT(DATE,create_date_time) = CONVERT(DATE, GETDATE()-1) then order_item_num else null end )  -- 日新增数量
+             ,count(distinct case when CONVERT(DATE,create_date_time) = CONVERT(DATE, GETDATE()-1) and day_cnt =0 then order_item_num else null end )  -- 日消耗数量
+       from  ODS_HANA.dbo.digital_brain_outbuy_step_inspection</t>
+  </si>
+  <si>
     <t>开票</t>
   </si>
   <si>
-    <t>采购流程</t>
-  </si>
-  <si>
-    <t>采购申请（当前数量，平均周期，新增数量，消耗数量）</t>
+    <t>ODS_HANA.dbo.digital_brain_outbuy_step_md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select   count(distinct md_ne)
+             ,sum(case when CONVERT(VARCHAR(7),md_max_date, 120) = CONVERT(VARCHAR(7),CONVERT(DATE, GETDATE()),  120) then day_cnt else null end)/count(case when CONVERT(VARCHAR(7),md_max_date, 120) = CONVERT(VARCHAR(7),CONVERT(DATE, GETDATE()),  120) then md_eq_cnt else null end)
+             ,count(distinct case when CONVERT(DATE,md_create_date) = CONVERT(DATE, GETDATE()-1) then 1 else null end )  -- 日新增数量
+             ,count(distinct case when CONVERT(DATE,md_create_date) = CONVERT(DATE, GETDATE()-1) and day_cnt=0 then 1 else null end )  -- 日消耗数量
+       from ODS_HANA.dbo.digital_brain_outbuy_step_md
+</t>
   </si>
   <si>
     <t>字段</t>
@@ -381,126 +428,41 @@
     <t>问题总结</t>
   </si>
   <si>
+    <t>年度采购总金额</t>
+  </si>
+  <si>
+    <t>ODS_HANA.dbo.digital_brain_purchase_plan_amount</t>
+  </si>
+  <si>
     <t>contract_amount</t>
   </si>
   <si>
+    <t xml:space="preserve">    select SUM(plan_contract_amount) as contract_amount
+       from ODS_HANA.dbo.digital_brain_purchase_plan_amount
+       where contract_year = year(GETDATE())
+       and sponsor_dept_code = '59TKR0X9'</t>
+  </si>
+  <si>
     <t>采购看板-》采购管理看板</t>
   </si>
   <si>
     <t>采购降本率</t>
   </si>
   <si>
-    <t>潜在供应商数量</t>
-  </si>
-  <si>
-    <t>srm-&gt;供应商生命周期-》潜在供应商</t>
-  </si>
-  <si>
-    <t>准入供应商数量</t>
-  </si>
-  <si>
-    <t>srm-&gt;供应商生命周期-》准入供应商</t>
-  </si>
-  <si>
-    <t>一次合格率</t>
-  </si>
-  <si>
-    <t>采购看板-》采购生产外协看板-〉当月订单完成情况</t>
-  </si>
-  <si>
-    <t>月度的采购金额</t>
-  </si>
-  <si>
-    <t>采购办看板-公司采购业务情况-合同签订金额</t>
-  </si>
-  <si>
-    <t>去年同比月度采购金额</t>
-  </si>
-  <si>
-    <t>A级别供应商采购金额</t>
-  </si>
-  <si>
-    <t>B级别供应商采购金额</t>
-  </si>
-  <si>
-    <t>C级别供应商采购金额</t>
-  </si>
-  <si>
-    <t>D（C新）级别供应商采购金额</t>
-  </si>
-  <si>
-    <t>A级别供应商采购金额占比</t>
-  </si>
-  <si>
-    <t>B级别供应商采购金额占比</t>
-  </si>
-  <si>
-    <t>C级别供应商采购金额占比</t>
-  </si>
-  <si>
-    <t>D（C新）级别供应商采购金额占比</t>
-  </si>
-  <si>
-    <t>各个部门的采购金额</t>
-  </si>
-  <si>
-    <t>月度综合榜单</t>
-  </si>
-  <si>
-    <t>外协看板</t>
-  </si>
-  <si>
-    <t>零件交货合格率</t>
-  </si>
-  <si>
-    <t>交货质量综合</t>
-  </si>
-  <si>
-    <t>采购品类合同金额占比</t>
-  </si>
-  <si>
-    <t>按照系统当年的合同统计，根据系统当年的合同号找到对应的采购计划，再根据采购类别编号跟品类进行的对应关系划分合同，计算同一品类的合同金额</t>
-  </si>
-  <si>
-    <t>生产品类合同金额占比</t>
-  </si>
-  <si>
-    <t>招投标结果</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>采购办看板</t>
-  </si>
-  <si>
-    <t>中标编号</t>
-  </si>
-  <si>
-    <t>标的名称</t>
-  </si>
-  <si>
-    <t>中标供应商</t>
-  </si>
-  <si>
-    <t>外购订单</t>
-  </si>
-  <si>
-    <t>digital_brain_outbuy_dashboard_index</t>
-  </si>
-  <si>
-    <t>digital_brain_outbuy_dashboard_index_month</t>
+    <t>冼秋婷说不做</t>
   </si>
   <si>
     <t>采购计划完成率</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>年度采购总金额</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>采购办看板的采购计划执行率</t>
     </r>
     <r>
@@ -508,76 +470,63 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>（逻辑需要再确认）</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜在供应商数量</t>
+  </si>
+  <si>
+    <t>srm-&gt;供应商生命周期-》潜在供应商</t>
   </si>
   <si>
     <t>蒋工说不做了</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>准入供应商数量</t>
+  </si>
+  <si>
+    <t>base_preparation_supplier_enter_info</t>
+  </si>
+  <si>
+    <t>SUPPLIER_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select count(1) from base_preparation_supplier_enter_info
+where supplier_created_date &gt;= CAST(YEAR(GETDATE()) AS VARCHAR(4)) + '-01-01'   
+ AND supplier_created_date&lt;=CONVERT(DATE, GETDATE()) </t>
+  </si>
+  <si>
+    <t>srm-&gt;供应商生命周期-》准入供应商</t>
+  </si>
+  <si>
+    <t>一次合格率</t>
+  </si>
+  <si>
+    <t>采购看板-》采购生产外协看板-〉当月订单完成情况</t>
+  </si>
+  <si>
+    <t>不用开发可以取到</t>
   </si>
   <si>
     <t>供应商合同签订金额（柱状图）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门采购金额TOPS</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>分级供应商金额占比</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购品类合同金额占比</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒋工说不做了（字段换了是否要做需要沟通）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>冼秋婷说不做</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>不用开发可以取到</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒋工说暂时不做</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购风险预警</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>digital_brain_outsourcing_dashboard_index_month</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    select SUM(plan_contract_amount) as contract_amount
-       from ODS_HANA.dbo.digital_brain_purchase_plan_amount
-       where contract_year = year(GETDATE())
-       and sponsor_dept_code = '59TKR0X9'</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ODS_HANA.dbo.digital_brain_purchase_plan_amount</t>
-  </si>
-  <si>
-    <t>SUPPLIER_ID</t>
-  </si>
-  <si>
-    <t>ODS_HANA.dbo.digital_brain_purchase_plan_amount</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>月度的采购金额</t>
+  </si>
+  <si>
+    <t>plan_contract_amount</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">    select  sum(plan_contract_amount)/10000
             ,CONVERT(VARCHAR(7), CONVERT(DATE,approved_date_time)  , 120)
         from ODS_HANA.dbo.digital_brain_purchase_plan_amount
@@ -588,7 +537,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>审批通过</t>
@@ -598,7 +546,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Menlo"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>' 
          AND CONVERT(DATE, approved_date_time) &gt;=CAST(YEAR(GETDATE()) AS VARCHAR(4)) + '-01-01'   
@@ -606,10 +554,63 @@
          AND contract_year=YEAR( GETDATE())
          group by CONVERT(VARCHAR(7), CONVERT(DATE,approved_date_time)  , 120)</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>plan_contract_amount</t>
+  </si>
+  <si>
+    <t>采购办看板-公司采购业务情况-合同签订金额</t>
+  </si>
+  <si>
+    <t>去年同比月度采购金额</t>
+  </si>
+  <si>
+    <t>分级供应商金额占比</t>
+  </si>
+  <si>
+    <t>A级别供应商采购金额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"     select  sum(plan_contract_amount)/10000
+            ,supplier_level
+        from ODS_HANA.dbo.digital_brain_purchase_plan_amount
+        where contract_state_desc = '审批通过' 
+         and supplier_level is not null
+         AND CONVERT(DATE, approved_date_time) &gt;=CAST(YEAR(GETDATE()) AS VARCHAR(4)) + '-01-01'   
+         AND CONVERT(DATE,approved_date_time) &lt;= CONVERT(DATE, GETDATE())  
+         AND contract_year=YEAR( GETDATE())
+         group by supplier_level"
+</t>
+  </si>
+  <si>
+    <t>B级别供应商采购金额</t>
+  </si>
+  <si>
+    <t>C级别供应商采购金额</t>
+  </si>
+  <si>
+    <t>D（C新）级别供应商采购金额</t>
+  </si>
+  <si>
+    <t>A级别供应商采购金额占比</t>
+  </si>
+  <si>
+    <t>B级别供应商采购金额占比</t>
+  </si>
+  <si>
+    <t>C级别供应商采购金额占比</t>
+  </si>
+  <si>
+    <t>D（C新）级别供应商采购金额占比</t>
+  </si>
+  <si>
+    <t>采购风险预警</t>
+  </si>
+  <si>
+    <t>蒋工说暂时不做</t>
+  </si>
+  <si>
+    <t>部门采购金额TOPS</t>
+  </si>
+  <si>
+    <t>各个部门的采购金额</t>
   </si>
   <si>
     <t xml:space="preserve">  select       sum(plan_contract_amount)/10000
@@ -620,7 +621,21 @@
          AND CONVERT(DATE,approved_date_time) &lt;= CONVERT(DATE, GETDATE())  
          AND contract_year=YEAR( GETDATE())
          group by sponsor_dept_desc</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>月度综合榜单</t>
+  </si>
+  <si>
+    <t>外协看板</t>
+  </si>
+  <si>
+    <t>零件交货合格率</t>
+  </si>
+  <si>
+    <t>交货质量综合</t>
+  </si>
+  <si>
+    <t>采购品类合同金额占比</t>
   </si>
   <si>
     <t xml:space="preserve">          select  sum(plan_contract_amount)/10000
@@ -634,24 +649,12 @@
          AND contract_year=YEAR( GETDATE())
          group by pur_type_name
 		       ,category_type_name</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">"     select  sum(plan_contract_amount)/10000
-            ,supplier_level
-        from ODS_HANA.dbo.digital_brain_purchase_plan_amount
-        where contract_state_desc = '审批通过' 
-         and supplier_level is not null
-         AND CONVERT(DATE, approved_date_time) &gt;=CAST(YEAR(GETDATE()) AS VARCHAR(4)) + '-01-01'   
-         AND CONVERT(DATE,approved_date_time) &lt;= CONVERT(DATE, GETDATE())  
-         AND contract_year=YEAR( GETDATE())
-         group by supplier_level"
-</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>plan_contract_amount</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照系统当年的合同统计，根据系统当年的合同号找到对应的采购计划，再根据采购类别编号跟品类进行的对应关系划分合同，计算同一品类的合同金额</t>
+  </si>
+  <si>
+    <t>生产品类合同金额占比</t>
   </si>
   <si>
     <t xml:space="preserve">       select  sum(plan_contract_amount)/10000
@@ -666,23 +669,52 @@
          group by pur_type_name
 		       ,category_type_name
          </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">select count(1) from base_preparation_supplier_enter_info
-where supplier_created_date &gt;= CAST(YEAR(GETDATE()) AS VARCHAR(4)) + '-01-01'   
- AND supplier_created_date&lt;=CONVERT(DATE, GETDATE()) </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>base_preparation_supplier_enter_info</t>
+  </si>
+  <si>
+    <t>招投标结果</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>采购办看板</t>
+  </si>
+  <si>
+    <t>蒋工说不做了（字段换了是否要做需要沟通）</t>
+  </si>
+  <si>
+    <t>中标编号</t>
+  </si>
+  <si>
+    <t>标的名称</t>
+  </si>
+  <si>
+    <t>中标供应商</t>
+  </si>
+  <si>
+    <t>外购订单</t>
+  </si>
+  <si>
+    <t>digital_brain_outbuy_dashboard_index</t>
+  </si>
+  <si>
+    <t>digital_brain_outbuy_dashboard_index_month</t>
+  </si>
+  <si>
+    <t>外购节点漏斗图</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -695,7 +727,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -703,22 +734,33 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -726,7 +768,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -735,7 +776,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -745,47 +785,167 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="1"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -794,7 +954,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39988402966399123"/>
+        <fgColor theme="3" tint="0.399884029663991"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,8 +970,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -902,13 +1248,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -930,6 +1518,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -939,19 +1539,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -960,99 +1566,113 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFFFF00"/>
+      <color rgb="00FFFF00"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>56</xdr:col>
@@ -1061,34 +1681,28 @@
       <xdr:rowOff>7843</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>819955</xdr:colOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>224952</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="62180077" y="11907015"/>
-          <a:ext cx="5100515" cy="1470931"/>
+          <a:off x="61561980" y="12136120"/>
+          <a:ext cx="4526280" cy="1487170"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1385,29 +1999,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="28" style="3" customWidth="1"/>
-    <col min="2" max="2" width="54.33203125" customWidth="1"/>
-    <col min="3" max="3" width="55.1640625" customWidth="1"/>
-    <col min="4" max="4" width="54.33203125" customWidth="1"/>
-    <col min="5" max="5" width="50.83203125" customWidth="1"/>
-    <col min="6" max="6" width="39.1640625" customWidth="1"/>
+    <col min="2" max="2" width="54.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="55.1666666666667" customWidth="1"/>
+    <col min="4" max="4" width="54.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="50.8333333333333" customWidth="1"/>
+    <col min="6" max="6" width="39.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="37" customHeight="1">
+    <row r="1" s="1" customFormat="1" ht="37" customHeight="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1427,7 +2041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:1">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1437,7 +2051,7 @@
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -1455,7 +2069,7 @@
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="31"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
@@ -1469,7 +2083,7 @@
       <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="31"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
@@ -1483,7 +2097,7 @@
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="31"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
@@ -1497,8 +2111,8 @@
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="32" t="s">
-        <v>164</v>
+      <c r="C7" s="34" t="s">
+        <v>22</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>23</v>
@@ -1513,7 +2127,7 @@
       <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="29"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="6" t="s">
         <v>26</v>
       </c>
@@ -1527,7 +2141,7 @@
       <c r="B9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="29"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="6" t="s">
         <v>29</v>
       </c>
@@ -1541,7 +2155,7 @@
       <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="30"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="6" t="s">
         <v>32</v>
       </c>
@@ -1550,22 +2164,22 @@
       </c>
       <c r="F10" s="6"/>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1">
-      <c r="A12" s="7" t="s">
+    <row r="12" s="2" customFormat="1" spans="1:6">
+      <c r="A12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5"/>
       <c r="B13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -1579,7 +2193,7 @@
       <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="29"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="6" t="s">
         <v>32</v>
       </c>
@@ -1591,7 +2205,7 @@
       <c r="B15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="29"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="6" t="s">
         <v>39</v>
       </c>
@@ -1603,7 +2217,7 @@
       <c r="B16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="29"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="6" t="s">
         <v>41</v>
       </c>
@@ -1615,7 +2229,7 @@
       <c r="B17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="29"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="6" t="s">
         <v>43</v>
       </c>
@@ -1627,24 +2241,24 @@
       <c r="B18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="30"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:1">
       <c r="A20" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="5"/>
       <c r="B21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -1657,203 +2271,144 @@
       <c r="B22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="30"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E22" s="6"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="F22" s="13"/>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="5"/>
+    <row r="25" ht="216" spans="1:6">
+      <c r="A25" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="B25" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="28" t="s">
         <v>51</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="35" t="s">
+        <v>52</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="29"/>
+      <c r="A26" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="5"/>
+    <row r="27" ht="129.6" spans="1:6">
+      <c r="A27" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="B27" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="29"/>
+        <v>55</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="35" t="s">
+        <v>56</v>
+      </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="5"/>
+    <row r="28" ht="230.4" spans="1:6">
+      <c r="A28" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="B28" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="29"/>
+        <v>58</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="35" t="s">
+        <v>59</v>
+      </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="5"/>
+    <row r="29" ht="244.8" spans="1:6">
+      <c r="A29" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="B29" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="29"/>
+        <v>61</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="35" t="s">
+        <v>62</v>
+      </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="5"/>
+    <row r="30" ht="259.2" spans="1:6">
+      <c r="A30" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="B30" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="29"/>
+        <v>64</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="35" t="s">
+        <v>65</v>
+      </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="5"/>
+    <row r="31" ht="244.8" spans="1:6">
+      <c r="A31" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="B31" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="30"/>
+        <v>67</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="35" t="s">
+        <v>68</v>
+      </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D34:D40"/>
+  <mergeCells count="4">
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="C13:C18"/>
     <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D25:D31"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="83" customWidth="1"/>
     <col min="4" max="4" width="78" customWidth="1"/>
-    <col min="5" max="5" width="36.33203125" customWidth="1"/>
+    <col min="5" max="5" width="36.3333333333333" customWidth="1"/>
     <col min="6" max="7" width="23" customWidth="1"/>
     <col min="8" max="8" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="37" customHeight="1">
+    <row r="1" s="1" customFormat="1" ht="37" customHeight="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1864,21 +2419,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1886,17 +2441,17 @@
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>63</v>
+      <c r="C3" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G3" s="6"/>
     </row>
@@ -1905,12 +2460,12 @@
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="29"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="6" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1918,14 +2473,14 @@
     <row r="5" spans="1:7">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="29"/>
+        <v>78</v>
+      </c>
+      <c r="C5" s="9"/>
       <c r="D5" s="6" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -1935,117 +2490,117 @@
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="29"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="6" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="13" customHeight="1">
+    <row r="7" ht="13" customHeight="1" spans="1:7">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="29"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="6" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="29"/>
+        <v>83</v>
+      </c>
+      <c r="C8" s="9"/>
       <c r="D8" s="6" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="C10" s="10"/>
       <c r="D10" s="6" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:1">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>81</v>
+        <v>89</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="29"/>
+        <v>92</v>
+      </c>
+      <c r="C14" s="9"/>
       <c r="D14" s="6" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -2054,275 +2609,275 @@
     <row r="15" spans="1:7">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="30"/>
+        <v>94</v>
+      </c>
+      <c r="C15" s="10"/>
       <c r="D15" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1">
-      <c r="A17" s="7" t="s">
+    <row r="17" s="2" customFormat="1" spans="1:6">
+      <c r="A17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="28" t="s">
-        <v>63</v>
+      <c r="C18" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:6">
       <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="29"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="6" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:6">
       <c r="A20" s="5"/>
       <c r="B20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="29"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="6" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:6">
       <c r="A21" s="5"/>
       <c r="B21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="29"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="6" t="s">
         <v>41</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:6">
       <c r="A22" s="5"/>
       <c r="B22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="29"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:6">
       <c r="A23" s="5"/>
       <c r="B23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="30"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:1">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:7" s="16" customFormat="1">
-      <c r="A25" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="16" customFormat="1">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="16" customFormat="1">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="34"/>
-    </row>
-    <row r="28" spans="1:7" s="16" customFormat="1">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="34"/>
-    </row>
-    <row r="29" spans="1:7" s="16" customFormat="1">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="34"/>
-    </row>
-    <row r="30" spans="1:7" s="16" customFormat="1">
-      <c r="A30" s="18"/>
-      <c r="B30" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="34"/>
-    </row>
-    <row r="31" spans="1:7" s="16" customFormat="1">
-      <c r="A31" s="18"/>
-      <c r="B31" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="34"/>
-    </row>
-    <row r="32" spans="1:7" s="16" customFormat="1">
-      <c r="A32" s="18"/>
-      <c r="B32" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="34"/>
-    </row>
-    <row r="33" spans="1:7" s="16" customFormat="1">
-      <c r="A33" s="17"/>
-      <c r="G33" s="34"/>
-    </row>
-    <row r="34" spans="1:7" s="16" customFormat="1">
-      <c r="A34" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="G34" s="34"/>
-    </row>
-    <row r="35" spans="1:7" s="16" customFormat="1">
-      <c r="A35" s="18"/>
-      <c r="B35" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="34"/>
-    </row>
-    <row r="36" spans="1:7" s="16" customFormat="1">
-      <c r="A36" s="18"/>
-      <c r="B36" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="34"/>
-    </row>
-    <row r="37" spans="1:7" s="16" customFormat="1">
-      <c r="A37" s="18"/>
-      <c r="B37" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="34"/>
-    </row>
-    <row r="38" spans="1:7" s="16" customFormat="1">
-      <c r="A38" s="18"/>
-      <c r="B38" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="34"/>
-    </row>
-    <row r="39" spans="1:7" s="16" customFormat="1">
-      <c r="A39" s="18"/>
-      <c r="B39" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="34"/>
-    </row>
-    <row r="40" spans="1:7" s="16" customFormat="1">
-      <c r="A40" s="18"/>
-      <c r="B40" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="34"/>
-    </row>
-    <row r="41" spans="1:7" s="16" customFormat="1">
-      <c r="A41" s="18"/>
-      <c r="B41" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="35"/>
-    </row>
-    <row r="42" spans="1:7" s="16" customFormat="1"/>
+    <row r="25" s="27" customFormat="1" spans="1:1">
+      <c r="A25" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" s="27" customFormat="1" spans="1:7">
+      <c r="A26" s="29"/>
+      <c r="B26" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" s="27" customFormat="1" spans="1:7">
+      <c r="A27" s="29"/>
+      <c r="B27" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="32"/>
+    </row>
+    <row r="28" s="27" customFormat="1" spans="1:7">
+      <c r="A28" s="29"/>
+      <c r="B28" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="32"/>
+    </row>
+    <row r="29" s="27" customFormat="1" spans="1:7">
+      <c r="A29" s="29"/>
+      <c r="B29" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="32"/>
+    </row>
+    <row r="30" s="27" customFormat="1" spans="1:7">
+      <c r="A30" s="29"/>
+      <c r="B30" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="32"/>
+    </row>
+    <row r="31" s="27" customFormat="1" spans="1:7">
+      <c r="A31" s="29"/>
+      <c r="B31" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="32"/>
+    </row>
+    <row r="32" s="27" customFormat="1" spans="1:7">
+      <c r="A32" s="29"/>
+      <c r="B32" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="32"/>
+    </row>
+    <row r="33" s="27" customFormat="1" spans="1:7">
+      <c r="A33" s="28"/>
+      <c r="G33" s="32"/>
+    </row>
+    <row r="34" s="27" customFormat="1" spans="1:7">
+      <c r="A34" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="G34" s="32"/>
+    </row>
+    <row r="35" s="27" customFormat="1" spans="1:7">
+      <c r="A35" s="29"/>
+      <c r="B35" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="32"/>
+    </row>
+    <row r="36" s="27" customFormat="1" spans="1:7">
+      <c r="A36" s="29"/>
+      <c r="B36" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="32"/>
+    </row>
+    <row r="37" s="27" customFormat="1" spans="1:7">
+      <c r="A37" s="29"/>
+      <c r="B37" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="32"/>
+    </row>
+    <row r="38" s="27" customFormat="1" spans="1:7">
+      <c r="A38" s="29"/>
+      <c r="B38" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="32"/>
+    </row>
+    <row r="39" s="27" customFormat="1" spans="1:7">
+      <c r="A39" s="29"/>
+      <c r="B39" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="32"/>
+    </row>
+    <row r="40" s="27" customFormat="1" spans="1:7">
+      <c r="A40" s="29"/>
+      <c r="B40" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="32"/>
+    </row>
+    <row r="41" s="27" customFormat="1" spans="1:7">
+      <c r="A41" s="29"/>
+      <c r="B41" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="33"/>
+    </row>
+    <row r="42" s="27" customFormat="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C3:C10"/>
@@ -2330,27 +2885,28 @@
     <mergeCell ref="C18:C23"/>
     <mergeCell ref="G26:G41"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="18.33203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="18.3333333333333" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="4" width="28.33203125" customWidth="1"/>
+    <col min="2" max="4" width="28.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="27.83203125" customWidth="1"/>
+    <col min="6" max="6" width="27.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="37" customHeight="1">
+    <row r="1" s="1" customFormat="1" ht="37" customHeight="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2361,19 +2917,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:1">
       <c r="A2" s="3"/>
     </row>
     <row r="3" spans="1:7">
@@ -2384,7 +2940,7 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -2392,24 +2948,24 @@
     <row r="4" spans="1:7">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="27"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="27"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5"/>
@@ -2419,32 +2975,32 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="27"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="27"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="27"/>
+      <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5"/>
@@ -2454,10 +3010,10 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="27"/>
+      <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5"/>
@@ -2467,76 +3023,76 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="27"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="27"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="27"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="27"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="27"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="27"/>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="27"/>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="6"/>
@@ -2546,10 +3102,10 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="11"/>
+      <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6"/>
@@ -2559,38 +3115,39 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="12"/>
+      <c r="G18" s="26"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="111" workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="55.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.6666666666667" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="55.6666666666667" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="84.6640625" customWidth="1"/>
-    <col min="6" max="6" width="64.33203125" customWidth="1"/>
-    <col min="7" max="7" width="46.6640625" customWidth="1"/>
-    <col min="8" max="8" width="29.33203125" customWidth="1"/>
+    <col min="5" max="5" width="84.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="64.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="46.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="29.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="37" customHeight="1">
+    <row r="1" s="1" customFormat="1" ht="37" customHeight="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2601,398 +3158,392 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="92" customHeight="1">
-      <c r="B2" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>166</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" ht="92" customHeight="1" spans="2:6">
+      <c r="B2" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>165</v>
+        <v>125</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>126</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="22" customFormat="1" ht="20" customHeight="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" ht="20" customHeight="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" s="14" customFormat="1" ht="20" customHeight="1" spans="1:7">
+      <c r="A3" s="19"/>
+      <c r="B3" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" s="6" customFormat="1" ht="20" customHeight="1" spans="1:7">
       <c r="A4" s="5"/>
-      <c r="B4" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="20" customHeight="1">
-      <c r="B5" s="13" t="s">
-        <v>117</v>
+      <c r="B4" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" spans="2:7">
+      <c r="B5" s="15" t="s">
+        <v>132</v>
       </c>
       <c r="F5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1">
+        <v>133</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" spans="2:6">
       <c r="B6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>176</v>
+        <v>135</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>138</v>
       </c>
       <c r="F6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="20" customHeight="1"/>
-    <row r="9" spans="1:8" ht="20" customHeight="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" s="15" customFormat="1" ht="20" customHeight="1" spans="1:7">
+      <c r="A7" s="22"/>
+      <c r="B7" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1"/>
+    <row r="9" ht="20" customHeight="1" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="20" customHeight="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1" spans="1:6">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>169</v>
+        <v>144</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>146</v>
       </c>
       <c r="F10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" spans="2:6">
+      <c r="B11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1"/>
+    <row r="13" ht="20" customHeight="1" spans="1:1">
+      <c r="A13" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" spans="2:5">
+      <c r="B14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="20" customHeight="1">
-      <c r="B11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" t="s">
+      <c r="D14" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1" spans="2:4">
+      <c r="B15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+    </row>
+    <row r="16" ht="20" customHeight="1" spans="2:4">
+      <c r="B16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" ht="20" customHeight="1" spans="2:4">
+      <c r="B17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+    </row>
+    <row r="18" ht="20" customHeight="1" spans="2:4">
+      <c r="B18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+    </row>
+    <row r="19" ht="20" customHeight="1" spans="2:4">
+      <c r="B19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" ht="20" customHeight="1" spans="2:4">
+      <c r="B20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+    </row>
+    <row r="21" ht="20" customHeight="1" spans="2:4">
+      <c r="B21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+    </row>
+    <row r="22" s="15" customFormat="1" ht="20" customHeight="1" spans="1:7">
+      <c r="A22" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="G22" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1"/>
+    <row r="24" ht="20" customHeight="1"/>
+    <row r="25" ht="20" customHeight="1" spans="1:1">
+      <c r="A25" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" ht="37" customHeight="1" spans="2:6">
+      <c r="B26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="17" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="20" customHeight="1"/>
-    <row r="13" spans="1:8" ht="20" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="20" customHeight="1">
-      <c r="B14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="20" customHeight="1">
-      <c r="B15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="39"/>
-    </row>
-    <row r="16" spans="1:8" ht="20" customHeight="1">
-      <c r="B16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="39"/>
-    </row>
-    <row r="17" spans="1:7" ht="20" customHeight="1">
-      <c r="B17" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="39"/>
-    </row>
-    <row r="18" spans="1:7" ht="20" customHeight="1">
-      <c r="B18" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="39"/>
-    </row>
-    <row r="19" spans="1:7" ht="20" customHeight="1">
-      <c r="B19" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="39"/>
-    </row>
-    <row r="20" spans="1:7" ht="20" customHeight="1">
-      <c r="B20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="39"/>
-    </row>
-    <row r="21" spans="1:7" ht="20" customHeight="1">
-      <c r="B21" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="39"/>
-    </row>
-    <row r="22" spans="1:7" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A22" s="14" t="s">
+      <c r="D26" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="G22" s="13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="20" customHeight="1"/>
-    <row r="24" spans="1:7" ht="20" customHeight="1"/>
-    <row r="25" spans="1:7" ht="20" customHeight="1">
-      <c r="A25" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="37" customHeight="1">
-      <c r="B26" t="s">
-        <v>134</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>171</v>
-      </c>
       <c r="F26" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="20" customHeight="1"/>
-    <row r="28" spans="1:7" ht="20" customHeight="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1"/>
+    <row r="28" ht="20" customHeight="1" spans="1:1">
       <c r="A28" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="20" customHeight="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1" spans="2:6">
       <c r="B29" t="s">
         <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="20" customHeight="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1" spans="2:6">
       <c r="B30" t="s">
         <v>40</v>
       </c>
       <c r="F30" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="20" customHeight="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1" spans="2:6">
       <c r="B31" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="F31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A32" s="14"/>
-      <c r="B32" s="13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="20" customHeight="1"/>
-    <row r="34" spans="1:7" ht="20" customHeight="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" s="15" customFormat="1" ht="20" customHeight="1" spans="1:2">
+      <c r="A32" s="22"/>
+      <c r="B32" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1"/>
+    <row r="34" ht="20" customHeight="1" spans="1:1">
       <c r="A34" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="58" customHeight="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" ht="58" customHeight="1" spans="2:7">
       <c r="B35" t="s">
-        <v>139</v>
-      </c>
-      <c r="C35" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="C35" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="G35" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="E35" s="24" t="s">
+    </row>
+    <row r="36" ht="20" customHeight="1"/>
+    <row r="37" ht="21" customHeight="1" spans="1:7">
+      <c r="A37" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" ht="50" customHeight="1" spans="2:5">
+      <c r="B38" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="G35" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="20" customHeight="1"/>
-    <row r="37" spans="1:7" ht="21" customHeight="1">
-      <c r="A37" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="50" customHeight="1">
-      <c r="B38" t="s">
-        <v>141</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="E38" s="24" t="s">
+    </row>
+    <row r="39" ht="20" customHeight="1"/>
+    <row r="40" ht="20" customHeight="1" spans="1:1">
+      <c r="A40" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="1" spans="2:7">
+      <c r="B41" t="s">
+        <v>174</v>
+      </c>
+      <c r="E41" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="20" customHeight="1"/>
-    <row r="40" spans="1:7" ht="20" customHeight="1">
-      <c r="A40" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="20" customHeight="1">
-      <c r="B41" t="s">
-        <v>143</v>
-      </c>
-      <c r="E41" t="s">
-        <v>144</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="20" customHeight="1">
+      <c r="G41" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1" spans="2:7">
       <c r="B42" t="s">
-        <v>145</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="20" customHeight="1">
+        <v>177</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1" spans="2:7">
       <c r="B43" t="s">
-        <v>146</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="20" customHeight="1">
+        <v>178</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" ht="20" customHeight="1" spans="2:7">
       <c r="B44" t="s">
-        <v>147</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="20" customHeight="1"/>
+        <v>179</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C14:C21"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="D14:D21"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E14:E21"/>
-    <mergeCell ref="C14:C21"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C18"/>
+    <sheetView topLeftCell="D11" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="28" style="3" customWidth="1"/>
-    <col min="2" max="2" width="54.33203125" customWidth="1"/>
-    <col min="3" max="3" width="55.1640625" customWidth="1"/>
-    <col min="4" max="4" width="54.33203125" customWidth="1"/>
-    <col min="5" max="5" width="50.83203125" customWidth="1"/>
-    <col min="6" max="6" width="39.1640625" customWidth="1"/>
+    <col min="2" max="2" width="54.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="55.1666666666667" customWidth="1"/>
+    <col min="4" max="4" width="54.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="50.8333333333333" customWidth="1"/>
+    <col min="6" max="6" width="39.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="37" customHeight="1">
+    <row r="1" s="1" customFormat="1" ht="37" customHeight="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3012,9 +3563,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3022,8 +3573,8 @@
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>149</v>
+      <c r="C3" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>9</v>
@@ -3038,7 +3589,7 @@
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="31"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
@@ -3052,7 +3603,7 @@
       <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="31"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
@@ -3066,7 +3617,7 @@
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="31"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
@@ -3080,8 +3631,8 @@
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>150</v>
+      <c r="C7" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>23</v>
@@ -3096,7 +3647,7 @@
       <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="29"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="6" t="s">
         <v>26</v>
       </c>
@@ -3110,7 +3661,7 @@
       <c r="B9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="29"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="6" t="s">
         <v>29</v>
       </c>
@@ -3124,7 +3675,7 @@
       <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="30"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="6" t="s">
         <v>32</v>
       </c>
@@ -3133,23 +3684,23 @@
       </c>
       <c r="F10" s="6"/>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1">
-      <c r="A12" s="7" t="s">
+    <row r="12" s="2" customFormat="1" spans="1:6">
+      <c r="A12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5"/>
       <c r="B13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="28" t="s">
-        <v>149</v>
+      <c r="C13" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>36</v>
@@ -3162,7 +3713,7 @@
       <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="29"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="6" t="s">
         <v>32</v>
       </c>
@@ -3174,7 +3725,7 @@
       <c r="B15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="29"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="6" t="s">
         <v>39</v>
       </c>
@@ -3186,7 +3737,7 @@
       <c r="B16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="29"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="6" t="s">
         <v>41</v>
       </c>
@@ -3198,7 +3749,7 @@
       <c r="B17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="29"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="6" t="s">
         <v>43</v>
       </c>
@@ -3210,25 +3761,25 @@
       <c r="B18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="30"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:1">
       <c r="A20" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="5"/>
       <c r="B21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="28" t="s">
-        <v>150</v>
+      <c r="C21" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>47</v>
@@ -3240,180 +3791,116 @@
       <c r="B22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="30"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E22" s="6"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="4:4">
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:1">
       <c r="A24" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="5"/>
       <c r="B27" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="29"/>
+        <v>50</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="5"/>
       <c r="B28" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="29"/>
+        <v>53</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="5"/>
       <c r="B29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="29"/>
+      <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="5"/>
       <c r="B30" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="29"/>
+        <v>57</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="30"/>
+        <v>60</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D34:D40"/>
+  <mergeCells count="4">
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="C13:C18"/>
     <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D25:D31"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/烟机工业数字大脑-2024-06-17.xlsx
+++ b/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/烟机工业数字大脑-2024-06-17.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="外协订单指标" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="186">
   <si>
     <t>模块</t>
   </si>
@@ -57,7 +57,7 @@
     <t>总订单数</t>
   </si>
   <si>
-    <t>digital_brain_outsourcing_dashboard_index</t>
+    <t>Outsourcing_Dashboard.dbo.digital_brain_outbuy_dashboard_index</t>
   </si>
   <si>
     <t>total_od_cnt</t>
@@ -99,7 +99,7 @@
     <t>总订单数（本月新增）</t>
   </si>
   <si>
-    <t>digital_brain_outsourcing_dashboard_index_month</t>
+    <t>Outsourcing_Dashboard.dbo.digital_brain_outbuy_dashboard_index_month</t>
   </si>
   <si>
     <t>od_cont</t>
@@ -147,6 +147,9 @@
     <t>逾期订单行号总数</t>
   </si>
   <si>
+    <t>nf_overdue_od_cnt+overdue_f_od_cnt</t>
+  </si>
+  <si>
     <t>订单交货及时率</t>
   </si>
   <si>
@@ -172,6 +175,9 @@
   </si>
   <si>
     <t>外购订单月度完成趋势分析</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outsourcing_Dashboard.dbo.digital_brain_outbuy_dashboard_index_month </t>
   </si>
   <si>
     <t>an_finish_cnt/total_od_cnt</t>
@@ -275,7 +281,7 @@
     <t>自加工订单</t>
   </si>
   <si>
-    <t>digital_brain_self_machining_index_day</t>
+    <t xml:space="preserve"> Outsourcing_Dashboard.dbo.digital_brain_self_machining_index_day </t>
   </si>
   <si>
     <t>an_finish_od+overdue_finish_od+overdue_nf_od+under_overdue_od+noverdue_nf_od</t>
@@ -626,10 +632,16 @@
     <t>月度综合榜单</t>
   </si>
   <si>
+    <t xml:space="preserve">factory_name </t>
+  </si>
+  <si>
     <t>外协看板</t>
   </si>
   <si>
     <t>零件交货合格率</t>
+  </si>
+  <si>
+    <t>qualified_cnt/an_finish_cnt</t>
   </si>
   <si>
     <t>交货质量综合</t>
@@ -695,12 +707,6 @@
     <t>外购订单</t>
   </si>
   <si>
-    <t>digital_brain_outbuy_dashboard_index</t>
-  </si>
-  <si>
-    <t>digital_brain_outbuy_dashboard_index_month</t>
-  </si>
-  <si>
     <t>外购节点漏斗图</t>
   </si>
 </sst>
@@ -714,7 +720,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -739,13 +745,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1366,137 +1365,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1545,61 +1544,64 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2007,15 +2009,15 @@
   <sheetPr/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="28" style="3" customWidth="1"/>
     <col min="2" max="2" width="54.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="55.1666666666667" customWidth="1"/>
+    <col min="3" max="3" width="72.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="54.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="50.8333333333333" customWidth="1"/>
     <col min="6" max="6" width="39.1666666666667" customWidth="1"/>
@@ -2111,7 +2113,7 @@
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -2195,7 +2197,7 @@
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -2203,11 +2205,11 @@
     <row r="15" spans="1:6">
       <c r="A15" s="5"/>
       <c r="B15" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -2215,11 +2217,11 @@
     <row r="16" spans="1:6">
       <c r="A16" s="5"/>
       <c r="B16" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -2227,11 +2229,11 @@
     <row r="17" spans="1:6">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -2239,67 +2241,67 @@
     <row r="18" spans="1:6">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5"/>
       <c r="B21" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="5"/>
       <c r="B22" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="13"/>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" ht="216" spans="1:6">
       <c r="A25" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="35" t="s">
-        <v>52</v>
+      <c r="D25" s="36" t="s">
+        <v>54</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -2309,70 +2311,70 @@
     </row>
     <row r="27" ht="129.6" spans="1:6">
       <c r="A27" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="35" t="s">
-        <v>56</v>
+      <c r="D27" s="36" t="s">
+        <v>58</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" ht="230.4" spans="1:6">
       <c r="A28" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="35" t="s">
-        <v>59</v>
+      <c r="D28" s="36" t="s">
+        <v>61</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" ht="244.8" spans="1:6">
       <c r="A29" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="35" t="s">
-        <v>62</v>
+      <c r="D29" s="36" t="s">
+        <v>64</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" ht="259.2" spans="1:6">
       <c r="A30" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="35" t="s">
-        <v>65</v>
+      <c r="D30" s="36" t="s">
+        <v>67</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" ht="244.8" spans="1:6">
       <c r="A31" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C31" s="6"/>
-      <c r="D31" s="35" t="s">
-        <v>68</v>
+      <c r="D31" s="36" t="s">
+        <v>70</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -2395,7 +2397,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C18" sqref="C18:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2419,13 +2421,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -2433,7 +2435,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2442,16 +2444,16 @@
         <v>7</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G3" s="6"/>
     </row>
@@ -2462,10 +2464,10 @@
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -2473,14 +2475,14 @@
     <row r="5" spans="1:7">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -2492,13 +2494,13 @@
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G6" s="6"/>
     </row>
@@ -2509,62 +2511,62 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G10" s="6"/>
     </row>
@@ -2573,34 +2575,34 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -2609,11 +2611,11 @@
     <row r="15" spans="1:7">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -2635,10 +2637,10 @@
         <v>35</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -2650,7 +2652,7 @@
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -2658,11 +2660,11 @@
     <row r="20" spans="1:6">
       <c r="A20" s="5"/>
       <c r="B20" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -2670,11 +2672,11 @@
     <row r="21" spans="1:6">
       <c r="A21" s="5"/>
       <c r="B21" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -2682,11 +2684,11 @@
     <row r="22" spans="1:6">
       <c r="A22" s="5"/>
       <c r="B22" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -2694,11 +2696,11 @@
     <row r="23" spans="1:6">
       <c r="A23" s="5"/>
       <c r="B23" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -2706,178 +2708,178 @@
     <row r="24" spans="1:1">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" s="27" customFormat="1" spans="1:1">
-      <c r="A25" s="28" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" s="27" customFormat="1" spans="1:7">
-      <c r="A26" s="29"/>
-      <c r="B26" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="31" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" s="27" customFormat="1" spans="1:7">
-      <c r="A27" s="29"/>
-      <c r="B27" s="30" t="s">
+    <row r="25" s="28" customFormat="1" spans="1:1">
+      <c r="A25" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="32"/>
-    </row>
-    <row r="28" s="27" customFormat="1" spans="1:7">
-      <c r="A28" s="29"/>
-      <c r="B28" s="30" t="s">
+    </row>
+    <row r="26" s="28" customFormat="1" spans="1:7">
+      <c r="A26" s="30"/>
+      <c r="B26" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="32"/>
-    </row>
-    <row r="29" s="27" customFormat="1" spans="1:7">
-      <c r="A29" s="29"/>
-      <c r="B29" s="30" t="s">
+    </row>
+    <row r="27" s="28" customFormat="1" spans="1:7">
+      <c r="A27" s="30"/>
+      <c r="B27" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="32"/>
-    </row>
-    <row r="30" s="27" customFormat="1" spans="1:7">
-      <c r="A30" s="29"/>
-      <c r="B30" s="30" t="s">
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="33"/>
+    </row>
+    <row r="28" s="28" customFormat="1" spans="1:7">
+      <c r="A28" s="30"/>
+      <c r="B28" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="32"/>
-    </row>
-    <row r="31" s="27" customFormat="1" spans="1:7">
-      <c r="A31" s="29"/>
-      <c r="B31" s="30" t="s">
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="33"/>
+    </row>
+    <row r="29" s="28" customFormat="1" spans="1:7">
+      <c r="A29" s="30"/>
+      <c r="B29" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="32"/>
-    </row>
-    <row r="32" s="27" customFormat="1" spans="1:7">
-      <c r="A32" s="29"/>
-      <c r="B32" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="32"/>
-    </row>
-    <row r="33" s="27" customFormat="1" spans="1:7">
-      <c r="A33" s="28"/>
-      <c r="G33" s="32"/>
-    </row>
-    <row r="34" s="27" customFormat="1" spans="1:7">
-      <c r="A34" s="28" t="s">
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="33"/>
+    </row>
+    <row r="30" s="28" customFormat="1" spans="1:7">
+      <c r="A30" s="30"/>
+      <c r="B30" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="G34" s="32"/>
-    </row>
-    <row r="35" s="27" customFormat="1" spans="1:7">
-      <c r="A35" s="29"/>
-      <c r="B35" s="30" t="s">
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="33"/>
+    </row>
+    <row r="31" s="28" customFormat="1" spans="1:7">
+      <c r="A31" s="30"/>
+      <c r="B31" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="32"/>
-    </row>
-    <row r="36" s="27" customFormat="1" spans="1:7">
-      <c r="A36" s="29"/>
-      <c r="B36" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="32"/>
-    </row>
-    <row r="37" s="27" customFormat="1" spans="1:7">
-      <c r="A37" s="29"/>
-      <c r="B37" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="32"/>
-    </row>
-    <row r="38" s="27" customFormat="1" spans="1:7">
-      <c r="A38" s="29"/>
-      <c r="B38" s="30" t="s">
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="33"/>
+    </row>
+    <row r="32" s="28" customFormat="1" spans="1:7">
+      <c r="A32" s="30"/>
+      <c r="B32" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="33"/>
+    </row>
+    <row r="33" s="28" customFormat="1" spans="1:7">
+      <c r="A33" s="29"/>
+      <c r="G33" s="33"/>
+    </row>
+    <row r="34" s="28" customFormat="1" spans="1:7">
+      <c r="A34" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G34" s="33"/>
+    </row>
+    <row r="35" s="28" customFormat="1" spans="1:7">
+      <c r="A35" s="30"/>
+      <c r="B35" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="33"/>
+    </row>
+    <row r="36" s="28" customFormat="1" spans="1:7">
+      <c r="A36" s="30"/>
+      <c r="B36" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="32"/>
-    </row>
-    <row r="39" s="27" customFormat="1" spans="1:7">
-      <c r="A39" s="29"/>
-      <c r="B39" s="30" t="s">
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="33"/>
+    </row>
+    <row r="37" s="28" customFormat="1" spans="1:7">
+      <c r="A37" s="30"/>
+      <c r="B37" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="32"/>
-    </row>
-    <row r="40" s="27" customFormat="1" spans="1:7">
-      <c r="A40" s="29"/>
-      <c r="B40" s="30" t="s">
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="33"/>
+    </row>
+    <row r="38" s="28" customFormat="1" spans="1:7">
+      <c r="A38" s="30"/>
+      <c r="B38" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="32"/>
-    </row>
-    <row r="41" s="27" customFormat="1" spans="1:7">
-      <c r="A41" s="29"/>
-      <c r="B41" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="33"/>
-    </row>
-    <row r="42" s="27" customFormat="1"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="33"/>
+    </row>
+    <row r="39" s="28" customFormat="1" spans="1:7">
+      <c r="A39" s="30"/>
+      <c r="B39" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="33"/>
+    </row>
+    <row r="40" s="28" customFormat="1" spans="1:7">
+      <c r="A40" s="30"/>
+      <c r="B40" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="33"/>
+    </row>
+    <row r="41" s="28" customFormat="1" spans="1:7">
+      <c r="A41" s="30"/>
+      <c r="B41" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="34"/>
+    </row>
+    <row r="42" s="28" customFormat="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C3:C10"/>
@@ -2917,13 +2919,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -2940,7 +2942,7 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -2948,24 +2950,24 @@
     <row r="4" spans="1:7">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="24"/>
+      <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="24"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5"/>
@@ -2975,150 +2977,150 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="24"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="24"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="24"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="24"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="24"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="24"/>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="24"/>
+      <c r="G12" s="25"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="24"/>
+      <c r="G13" s="25"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="24"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="24"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="24"/>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="25"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="26"/>
+      <c r="G18" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3131,8 +3133,8 @@
   <sheetPr/>
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -3158,361 +3160,385 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" ht="92" customHeight="1" spans="2:6">
       <c r="B2" s="16" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" s="14" customFormat="1" ht="20" customHeight="1" spans="1:7">
       <c r="A3" s="19"/>
       <c r="B3" s="14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" s="6" customFormat="1" ht="20" customHeight="1" spans="1:7">
       <c r="A4" s="5"/>
       <c r="B4" s="20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="2:7">
       <c r="B5" s="15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="2:6">
       <c r="B6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" s="15" customFormat="1" ht="20" customHeight="1" spans="1:7">
       <c r="A7" s="22"/>
       <c r="B7" s="15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1"/>
     <row r="9" ht="20" customHeight="1" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:6">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="2:6">
       <c r="B11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1"/>
     <row r="13" ht="20" customHeight="1" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="2:5">
       <c r="B14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1" spans="2:4">
       <c r="B15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="18"/>
     </row>
     <row r="16" ht="20" customHeight="1" spans="2:4">
       <c r="B16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="18"/>
     </row>
     <row r="17" ht="20" customHeight="1" spans="2:4">
       <c r="B17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="18"/>
     </row>
     <row r="18" ht="20" customHeight="1" spans="2:4">
       <c r="B18" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="18"/>
     </row>
     <row r="19" ht="20" customHeight="1" spans="2:4">
       <c r="B19" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="18"/>
     </row>
     <row r="20" ht="20" customHeight="1" spans="2:4">
       <c r="B20" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="18"/>
     </row>
     <row r="21" ht="20" customHeight="1" spans="2:4">
       <c r="B21" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
     </row>
     <row r="22" s="15" customFormat="1" ht="20" customHeight="1" spans="1:7">
       <c r="A22" s="22" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C22" s="17"/>
       <c r="G22" s="15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1"/>
     <row r="24" ht="20" customHeight="1"/>
     <row r="25" ht="20" customHeight="1" spans="1:1">
       <c r="A25" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" ht="37" customHeight="1" spans="2:6">
       <c r="B26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F26" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1"/>
     <row r="28" ht="20" customHeight="1" spans="1:1">
       <c r="A28" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1" spans="2:6">
       <c r="B29" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1" spans="2:6">
       <c r="B30" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" t="s">
+        <v>167</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="F30" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1" spans="2:6">
       <c r="B31" t="s">
-        <v>166</v>
+        <v>169</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31" t="s">
+        <v>170</v>
       </c>
       <c r="F31" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" s="15" customFormat="1" ht="20" customHeight="1" spans="1:2">
       <c r="A32" s="22"/>
       <c r="B32" s="15" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1"/>
     <row r="34" ht="20" customHeight="1" spans="1:1">
       <c r="A34" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" ht="58" customHeight="1" spans="2:7">
       <c r="B35" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>170</v>
+        <v>173</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1"/>
     <row r="37" ht="21" customHeight="1" spans="1:7">
       <c r="A37" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>170</v>
+        <v>175</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="38" ht="50" customHeight="1" spans="2:5">
       <c r="B38" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1"/>
     <row r="40" ht="20" customHeight="1" spans="1:1">
       <c r="A40" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1" spans="2:7">
       <c r="B41" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E41" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1" spans="2:7">
       <c r="B42" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1" spans="2:7">
       <c r="B43" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1" spans="2:7">
       <c r="B44" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C14:C21"/>
+    <mergeCell ref="C29:C31"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D14:D21"/>
     <mergeCell ref="E10:E11"/>
@@ -3529,8 +3555,8 @@
   <sheetPr/>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="D11" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:F33"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D22" sqref="D21:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -3565,7 +3591,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3574,7 +3600,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>9</v>
@@ -3632,7 +3658,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>182</v>
+        <v>22</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>23</v>
@@ -3700,7 +3726,7 @@
         <v>35</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>36</v>
@@ -3723,11 +3749,11 @@
     <row r="15" spans="1:6">
       <c r="A15" s="5"/>
       <c r="B15" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -3735,11 +3761,11 @@
     <row r="16" spans="1:6">
       <c r="A16" s="5"/>
       <c r="B16" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -3747,11 +3773,11 @@
     <row r="17" spans="1:6">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -3759,41 +3785,41 @@
     <row r="18" spans="1:6">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5"/>
       <c r="B21" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>182</v>
+        <v>22</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="5"/>
       <c r="B22" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="13"/>
@@ -3803,21 +3829,21 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="5"/>
       <c r="B27" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -3826,7 +3852,7 @@
     <row r="28" spans="1:6">
       <c r="A28" s="5"/>
       <c r="B28" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -3836,10 +3862,10 @@
     <row r="29" spans="1:6">
       <c r="A29" s="5"/>
       <c r="B29" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -3848,10 +3874,10 @@
     <row r="30" spans="1:6">
       <c r="A30" s="5"/>
       <c r="B30" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -3860,10 +3886,10 @@
     <row r="31" spans="1:6">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -3872,10 +3898,10 @@
     <row r="32" spans="1:6">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -3884,10 +3910,10 @@
     <row r="33" spans="1:6">
       <c r="A33" s="5"/>
       <c r="B33" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>

--- a/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/烟机工业数字大脑-2024-06-17.xlsx
+++ b/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/烟机工业数字大脑-2024-06-17.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangzuogong/IdeaProjects/ike-date/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEBEE62-4988-7440-98FC-7DB15F705946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外协订单指标" sheetId="3" r:id="rId1"/>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="189">
   <si>
     <t>模块</t>
   </si>
@@ -212,13 +218,6 @@
     <t>ODS_HANA.dbo.digital_brain_outbuy_step_ord</t>
   </si>
   <si>
-    <t>select count(1) -- 当前数量
-      ,sum(day_cnt)/count(1) -- 本月平均周期（月度？）
-      ,count(case when create_date = CONVERT(DATE, GETDATE()) then 1 else null end ) d -- 日新增数量
-      ,count(case when create_date = CONVERT(DATE, GETDATE()) and day_cnt = 0 then 1 else null end ) d -- 日消耗数量
-  from digital_brain_outbuy_step_ord</t>
-  </si>
-  <si>
     <t>物资配送</t>
   </si>
   <si>
@@ -466,6 +465,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -476,6 +476,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（逻辑需要再确认）</t>
@@ -531,7 +532,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Menlo"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">    select  sum(plan_contract_amount)/10000
             ,CONVERT(VARCHAR(7), CONVERT(DATE,approved_date_time)  , 120)
@@ -543,6 +544,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>审批通过</t>
@@ -552,7 +554,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Menlo"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>' 
          AND CONVERT(DATE, approved_date_time) &gt;=CAST(YEAR(GETDATE()) AS VARCHAR(4)) + '-01-01'   
@@ -709,18 +711,35 @@
   <si>
     <t>外购节点漏斗图</t>
   </si>
+  <si>
+    <t>Outsourcing_Dashboard.dbo.digital_brain_outbuy_step_src</t>
+  </si>
+  <si>
+    <t>Outsourcing_Dashboard.dbo.digital_brain_outbuy_step_src</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> select count(INQUIRY_MODE)
+         ,sum( case when CONVERT(VARCHAR(7),end_date,  120) = CONVERT(VARCHAR(7),CONVERT(DATE, GETDATE()),  120) then day_cnt else null end )/count(case when CONVERT(VARCHAR(7),end_date,  120) = CONVERT(VARCHAR(7),CONVERT(DATE, GETDATE()),120) then day_cnt else null end )
+         ,count(case when start_date = CONVERT(DATE, GETDATE()-1) then 1 else null end ) -- 日新增数量
+         ,count(case when end_date = CONVERT(DATE, GETDATE()-1) then 1 else null end )   -- 日消耗数量
+    from Outsourcing_Dashboard.dbo.digital_brain_outbuy_step_src</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(1) -- 当前数量
+      ,sum(day_cnt)/count(1) -- 本月平均周期（月度？）
+      ,count(case when create_date = CONVERT(DATE, GETDATE()) then 1 else null end ) d -- 日新增数量
+      ,count(case when create_date = CONVERT(DATE, GETDATE()) and day_cnt = 0 then 1 else null end ) d -- 日消耗数量
+  from digital_brain_outbuy_step_ord</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="30">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -733,6 +752,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -740,12 +760,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -753,13 +774,14 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Menlo"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -767,6 +789,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -775,6 +798,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -784,167 +808,41 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -953,7 +851,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.399884029663991"/>
+        <fgColor theme="3" tint="0.39985351115451523"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,194 +867,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1247,255 +959,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1517,6 +987,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1529,152 +1062,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FFFF00"/>
+      <color rgb="FFFFFF00"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>56</xdr:col>
@@ -1690,13 +1125,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2001,29 +1442,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="28" style="3" customWidth="1"/>
-    <col min="2" max="2" width="54.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="72.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="54.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="50.8333333333333" customWidth="1"/>
-    <col min="6" max="6" width="39.1666666666667" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" customWidth="1"/>
+    <col min="3" max="3" width="72.33203125" customWidth="1"/>
+    <col min="4" max="4" width="54.33203125" customWidth="1"/>
+    <col min="5" max="5" width="50.83203125" customWidth="1"/>
+    <col min="6" max="6" width="39.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="37" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="37" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2043,7 +1484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2053,7 +1494,7 @@
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -2071,7 +1512,7 @@
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
@@ -2085,7 +1526,7 @@
       <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
@@ -2099,7 +1540,7 @@
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
@@ -2113,7 +1554,7 @@
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="29" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -2129,7 +1570,7 @@
       <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="9"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="6" t="s">
         <v>26</v>
       </c>
@@ -2143,7 +1584,7 @@
       <c r="B9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="6" t="s">
         <v>29</v>
       </c>
@@ -2157,7 +1598,7 @@
       <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="6" t="s">
         <v>32</v>
       </c>
@@ -2166,22 +1607,22 @@
       </c>
       <c r="F10" s="6"/>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:6">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:6" s="2" customFormat="1">
+      <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5"/>
       <c r="B13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -2195,7 +1636,7 @@
       <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="6" t="s">
         <v>38</v>
       </c>
@@ -2207,7 +1648,7 @@
       <c r="B15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="6" t="s">
         <v>40</v>
       </c>
@@ -2219,7 +1660,7 @@
       <c r="B16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="6" t="s">
         <v>42</v>
       </c>
@@ -2231,7 +1672,7 @@
       <c r="B17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="6" t="s">
         <v>44</v>
       </c>
@@ -2243,24 +1684,24 @@
       <c r="B18" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="6" t="s">
         <v>46</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="5"/>
       <c r="B21" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="29" t="s">
         <v>48</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -2273,19 +1714,19 @@
       <c r="B22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E22" s="6"/>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="F22" s="9"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" ht="216" spans="1:6">
+    <row r="25" spans="1:6" ht="225">
       <c r="A25" s="6" t="s">
         <v>52</v>
       </c>
@@ -2293,23 +1734,27 @@
         <v>53</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="25" t="s">
         <v>54</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="210">
       <c r="A26" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="26" t="s">
+        <v>186</v>
+      </c>
       <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="D26" s="27" t="s">
+        <v>187</v>
+      </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" ht="129.6" spans="1:6">
+    <row r="27" spans="1:6" ht="120">
       <c r="A27" s="6" t="s">
         <v>56</v>
       </c>
@@ -2317,64 +1762,64 @@
         <v>57</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="36" t="s">
-        <v>58</v>
+      <c r="D27" s="27" t="s">
+        <v>188</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" ht="230.4" spans="1:6">
+    <row r="28" spans="1:6" ht="240">
       <c r="A28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="25" t="s">
         <v>60</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="36" t="s">
-        <v>61</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" ht="244.8" spans="1:6">
+    <row r="29" spans="1:6" ht="255">
       <c r="A29" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="6"/>
+      <c r="D29" s="25" t="s">
         <v>63</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="36" t="s">
-        <v>64</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" ht="259.2" spans="1:6">
+    <row r="30" spans="1:6" ht="270">
       <c r="A30" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="C30" s="6"/>
+      <c r="D30" s="25" t="s">
         <v>66</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="36" t="s">
-        <v>67</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" ht="244.8" spans="1:6">
+    <row r="31" spans="1:6" ht="255">
       <c r="A31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="C31" s="6"/>
+      <c r="D31" s="25" t="s">
         <v>69</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="36" t="s">
-        <v>70</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -2386,31 +1831,30 @@
     <mergeCell ref="C13:C18"/>
     <mergeCell ref="C21:C22"/>
   </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="83" customWidth="1"/>
     <col min="4" max="4" width="78" customWidth="1"/>
-    <col min="5" max="5" width="36.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" customWidth="1"/>
     <col min="6" max="7" width="23" customWidth="1"/>
     <col min="8" max="8" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="37" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="37" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2421,21 +1865,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2443,17 +1887,17 @@
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="G3" s="6"/>
     </row>
@@ -2462,12 +1906,12 @@
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -2475,14 +1919,14 @@
     <row r="5" spans="1:7">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -2492,117 +1936,117 @@
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" ht="13" customHeight="1" spans="1:7">
+    <row r="7" spans="1:7" ht="13" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="9"/>
+        <v>84</v>
+      </c>
+      <c r="C8" s="30"/>
       <c r="D8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="F8" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="9"/>
+        <v>85</v>
+      </c>
+      <c r="C9" s="30"/>
       <c r="D9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="F9" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -2611,275 +2055,275 @@
     <row r="15" spans="1:7">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:6">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:7" s="2" customFormat="1">
+      <c r="A17" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>74</v>
+      <c r="C18" s="29" t="s">
+        <v>73</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20" s="5"/>
       <c r="B20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21" s="5"/>
       <c r="B21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7">
       <c r="A22" s="5"/>
       <c r="B22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7">
       <c r="A23" s="5"/>
       <c r="B23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="10"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="6" t="s">
         <v>46</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:7">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" s="28" customFormat="1" spans="1:1">
-      <c r="A25" s="29" t="s">
+    <row r="25" spans="1:7" s="21" customFormat="1">
+      <c r="A25" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="21" customFormat="1">
+      <c r="A26" s="23"/>
+      <c r="B26" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="32" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="26" s="28" customFormat="1" spans="1:7">
-      <c r="A26" s="30"/>
-      <c r="B26" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="32" t="s">
+    <row r="27" spans="1:7" s="21" customFormat="1">
+      <c r="A27" s="23"/>
+      <c r="B27" s="24" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="27" s="28" customFormat="1" spans="1:7">
-      <c r="A27" s="30"/>
-      <c r="B27" s="31" t="s">
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="33"/>
+    </row>
+    <row r="28" spans="1:7" s="21" customFormat="1">
+      <c r="A28" s="23"/>
+      <c r="B28" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="33"/>
-    </row>
-    <row r="28" s="28" customFormat="1" spans="1:7">
-      <c r="A28" s="30"/>
-      <c r="B28" s="31" t="s">
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="33"/>
+    </row>
+    <row r="29" spans="1:7" s="21" customFormat="1">
+      <c r="A29" s="23"/>
+      <c r="B29" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="33"/>
-    </row>
-    <row r="29" s="28" customFormat="1" spans="1:7">
-      <c r="A29" s="30"/>
-      <c r="B29" s="31" t="s">
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="33"/>
+    </row>
+    <row r="30" spans="1:7" s="21" customFormat="1">
+      <c r="A30" s="23"/>
+      <c r="B30" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="33"/>
-    </row>
-    <row r="30" s="28" customFormat="1" spans="1:7">
-      <c r="A30" s="30"/>
-      <c r="B30" s="31" t="s">
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="33"/>
+    </row>
+    <row r="31" spans="1:7" s="21" customFormat="1">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="33"/>
-    </row>
-    <row r="31" s="28" customFormat="1" spans="1:7">
-      <c r="A31" s="30"/>
-      <c r="B31" s="31" t="s">
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="33"/>
+    </row>
+    <row r="32" spans="1:7" s="21" customFormat="1">
+      <c r="A32" s="23"/>
+      <c r="B32" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="33"/>
+    </row>
+    <row r="33" spans="1:7" s="21" customFormat="1">
+      <c r="A33" s="22"/>
+      <c r="G33" s="33"/>
+    </row>
+    <row r="34" spans="1:7" s="21" customFormat="1">
+      <c r="A34" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="33"/>
-    </row>
-    <row r="32" s="28" customFormat="1" spans="1:7">
-      <c r="A32" s="30"/>
-      <c r="B32" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="33"/>
-    </row>
-    <row r="33" s="28" customFormat="1" spans="1:7">
-      <c r="A33" s="29"/>
-      <c r="G33" s="33"/>
-    </row>
-    <row r="34" s="28" customFormat="1" spans="1:7">
-      <c r="A34" s="29" t="s">
+      <c r="G34" s="33"/>
+    </row>
+    <row r="35" spans="1:7" s="21" customFormat="1">
+      <c r="A35" s="23"/>
+      <c r="B35" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="G34" s="33"/>
-    </row>
-    <row r="35" s="28" customFormat="1" spans="1:7">
-      <c r="A35" s="30"/>
-      <c r="B35" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
       <c r="G35" s="33"/>
     </row>
-    <row r="36" s="28" customFormat="1" spans="1:7">
-      <c r="A36" s="30"/>
-      <c r="B36" s="31" t="s">
+    <row r="36" spans="1:7" s="21" customFormat="1">
+      <c r="A36" s="23"/>
+      <c r="B36" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="33"/>
+    </row>
+    <row r="37" spans="1:7" s="21" customFormat="1">
+      <c r="A37" s="23"/>
+      <c r="B37" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="33"/>
-    </row>
-    <row r="37" s="28" customFormat="1" spans="1:7">
-      <c r="A37" s="30"/>
-      <c r="B37" s="31" t="s">
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="33"/>
+    </row>
+    <row r="38" spans="1:7" s="21" customFormat="1">
+      <c r="A38" s="23"/>
+      <c r="B38" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="33"/>
-    </row>
-    <row r="38" s="28" customFormat="1" spans="1:7">
-      <c r="A38" s="30"/>
-      <c r="B38" s="31" t="s">
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="33"/>
+    </row>
+    <row r="39" spans="1:7" s="21" customFormat="1">
+      <c r="A39" s="23"/>
+      <c r="B39" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="33"/>
-    </row>
-    <row r="39" s="28" customFormat="1" spans="1:7">
-      <c r="A39" s="30"/>
-      <c r="B39" s="31" t="s">
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="33"/>
+    </row>
+    <row r="40" spans="1:7" s="21" customFormat="1">
+      <c r="A40" s="23"/>
+      <c r="B40" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="33"/>
-    </row>
-    <row r="40" s="28" customFormat="1" spans="1:7">
-      <c r="A40" s="30"/>
-      <c r="B40" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
       <c r="G40" s="33"/>
     </row>
-    <row r="41" s="28" customFormat="1" spans="1:7">
-      <c r="A41" s="30"/>
-      <c r="B41" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
+    <row r="41" spans="1:7" s="21" customFormat="1">
+      <c r="A41" s="23"/>
+      <c r="B41" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
       <c r="G41" s="34"/>
     </row>
-    <row r="42" s="28" customFormat="1"/>
+    <row r="42" spans="1:7" s="21" customFormat="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C3:C10"/>
@@ -2887,28 +2331,27 @@
     <mergeCell ref="C18:C23"/>
     <mergeCell ref="G26:G41"/>
   </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.3333333333333" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.33203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="4" width="28.3333333333333" customWidth="1"/>
+    <col min="2" max="4" width="28.33203125" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="27.8333333333333" customWidth="1"/>
+    <col min="6" max="6" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="37" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="37" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2919,19 +2362,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:7">
       <c r="A2" s="3"/>
     </row>
     <row r="3" spans="1:7">
@@ -2942,7 +2385,7 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -2950,24 +2393,24 @@
     <row r="4" spans="1:7">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="25"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="25"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5"/>
@@ -2977,32 +2420,32 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="25"/>
+      <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="25"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="25"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5"/>
@@ -3012,10 +2455,10 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="25"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5"/>
@@ -3025,76 +2468,76 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="25"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="25"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="25"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="25"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="25"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="25"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="25"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="6"/>
@@ -3104,10 +2547,10 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="26"/>
+      <c r="G17" s="19"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6"/>
@@ -3117,39 +2560,38 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="27"/>
+      <c r="G18" s="20"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="27.6666666666667" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="55.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="55.6640625" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="84.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="64.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="46.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="29.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="84.6640625" customWidth="1"/>
+    <col min="6" max="6" width="64.33203125" customWidth="1"/>
+    <col min="7" max="7" width="46.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="37" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="37" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3160,416 +2602,422 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="92" customHeight="1">
+      <c r="B2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="2" ht="92" customHeight="1" spans="2:6">
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="D2" t="s">
         <v>126</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" t="s">
         <v>128</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:8" s="10" customFormat="1" ht="20" customHeight="1">
+      <c r="A3" s="14"/>
+      <c r="B3" s="10" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="3" s="14" customFormat="1" ht="20" customHeight="1" spans="1:7">
-      <c r="A3" s="19"/>
-      <c r="B3" s="14" t="s">
+      <c r="G3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="G3" s="14" t="s">
+    </row>
+    <row r="4" spans="1:8" s="6" customFormat="1" ht="20" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="4" s="6" customFormat="1" ht="20" customHeight="1" spans="1:7">
-      <c r="A4" s="5"/>
-      <c r="B4" s="20" t="s">
+      <c r="G4" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G4" s="20" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
+      <c r="B5" s="11" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="5" ht="20" customHeight="1" spans="2:7">
-      <c r="B5" s="15" t="s">
+      <c r="F5" t="s">
         <v>134</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="G5" s="15" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
+      <c r="B6" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="6" ht="20" customHeight="1" spans="2:6">
-      <c r="B6" t="s">
+      <c r="C6" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="D6" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="E6" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="F6" t="s">
         <v>140</v>
       </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="7" spans="1:8" s="11" customFormat="1" ht="20" customHeight="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="11" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="7" s="15" customFormat="1" ht="20" customHeight="1" spans="1:7">
-      <c r="A7" s="22"/>
-      <c r="B7" s="15" t="s">
+      <c r="F7" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="G7" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="G7" s="15" t="s">
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1"/>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
+      <c r="A9" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="8" ht="20" customHeight="1"/>
-    <row r="9" ht="20" customHeight="1" spans="1:1">
-      <c r="A9" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" ht="20" customHeight="1" spans="1:6">
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10"/>
       <c r="B10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="17" t="s">
+      <c r="E10" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="F10" t="s">
         <v>148</v>
       </c>
-      <c r="F10" t="s">
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
+      <c r="B11" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="11" ht="20" customHeight="1" spans="2:6">
-      <c r="B11" t="s">
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1"/>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
+      <c r="A13" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" ht="20" customHeight="1"/>
-    <row r="13" ht="20" customHeight="1" spans="1:1">
-      <c r="A13" s="3" t="s">
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
+      <c r="B14" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="14" ht="20" customHeight="1" spans="2:5">
-      <c r="B14" t="s">
+      <c r="C14" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="E14" s="18" t="s">
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
+      <c r="B15" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="15" ht="20" customHeight="1" spans="2:4">
-      <c r="B15" t="s">
+      <c r="C15" s="36"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
+      <c r="B16" t="s">
         <v>154</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-    </row>
-    <row r="16" ht="20" customHeight="1" spans="2:4">
-      <c r="B16" t="s">
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+    </row>
+    <row r="17" spans="1:7" ht="20" customHeight="1">
+      <c r="B17" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-    </row>
-    <row r="17" ht="20" customHeight="1" spans="2:4">
-      <c r="B17" t="s">
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+    </row>
+    <row r="18" spans="1:7" ht="20" customHeight="1">
+      <c r="B18" t="s">
         <v>156</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
-    </row>
-    <row r="18" ht="20" customHeight="1" spans="2:4">
-      <c r="B18" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+    </row>
+    <row r="19" spans="1:7" ht="20" customHeight="1">
+      <c r="B19" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-    </row>
-    <row r="19" ht="20" customHeight="1" spans="2:4">
-      <c r="B19" t="s">
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+    </row>
+    <row r="20" spans="1:7" ht="20" customHeight="1">
+      <c r="B20" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
-    </row>
-    <row r="20" ht="20" customHeight="1" spans="2:4">
-      <c r="B20" t="s">
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+    </row>
+    <row r="21" spans="1:7" ht="20" customHeight="1">
+      <c r="B21" t="s">
         <v>159</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-    </row>
-    <row r="21" ht="20" customHeight="1" spans="2:4">
-      <c r="B21" t="s">
+      <c r="C21" s="36"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+    </row>
+    <row r="22" spans="1:7" s="11" customFormat="1" ht="20" customHeight="1">
+      <c r="A22" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
-    </row>
-    <row r="22" s="15" customFormat="1" ht="20" customHeight="1" spans="1:7">
-      <c r="A22" s="22" t="s">
+      <c r="C22" s="12"/>
+      <c r="G22" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="G22" s="15" t="s">
+    </row>
+    <row r="23" spans="1:7" ht="20" customHeight="1"/>
+    <row r="24" spans="1:7" ht="20" customHeight="1"/>
+    <row r="25" spans="1:7" ht="20" customHeight="1">
+      <c r="A25" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="23" ht="20" customHeight="1"/>
-    <row r="24" ht="20" customHeight="1"/>
-    <row r="25" ht="20" customHeight="1" spans="1:1">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:7" ht="37" customHeight="1">
+      <c r="B26" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="26" ht="37" customHeight="1" spans="2:6">
-      <c r="B26" t="s">
+      <c r="C26" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C26" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="E26" s="18" t="s">
+      <c r="F26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="20" customHeight="1"/>
+    <row r="28" spans="1:7" ht="20" customHeight="1">
+      <c r="A28" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="F26" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="27" ht="20" customHeight="1"/>
-    <row r="28" ht="20" customHeight="1" spans="1:1">
-      <c r="A28" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="29" ht="20" customHeight="1" spans="2:6">
+    </row>
+    <row r="29" spans="1:7" ht="20" customHeight="1">
       <c r="B29" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="30" ht="20" customHeight="1" spans="2:6">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="20" customHeight="1">
       <c r="B30" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="23"/>
+      <c r="C30" s="39"/>
       <c r="D30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="20" customHeight="1">
+      <c r="B31" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="31" ht="20" customHeight="1" spans="2:6">
-      <c r="B31" t="s">
+      <c r="C31" s="39"/>
+      <c r="D31" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31" t="s">
         <v>169</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
         <v>167</v>
       </c>
-      <c r="E31" t="s">
+    </row>
+    <row r="32" spans="1:7" s="11" customFormat="1" ht="20" customHeight="1">
+      <c r="A32" s="16"/>
+      <c r="B32" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="F31" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="32" s="15" customFormat="1" ht="20" customHeight="1" spans="1:2">
-      <c r="A32" s="22"/>
-      <c r="B32" s="15" t="s">
+    </row>
+    <row r="33" spans="1:7" ht="20" customHeight="1"/>
+    <row r="34" spans="1:7" ht="20" customHeight="1">
+      <c r="A34" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="33" ht="20" customHeight="1"/>
-    <row r="34" ht="20" customHeight="1" spans="1:1">
-      <c r="A34" s="3" t="s">
+    <row r="35" spans="1:7" ht="58" customHeight="1">
+      <c r="B35" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="13" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="35" ht="58" customHeight="1" spans="2:7">
-      <c r="B35" t="s">
-        <v>172</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="E35" s="18" t="s">
+      <c r="G35" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="G35" s="24" t="s">
+    </row>
+    <row r="36" spans="1:7" ht="20" customHeight="1"/>
+    <row r="37" spans="1:7" ht="21" customHeight="1">
+      <c r="A37" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="36" ht="20" customHeight="1"/>
-    <row r="37" ht="21" customHeight="1" spans="1:7">
-      <c r="A37" s="3" t="s">
+      <c r="G37" s="17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="50" customHeight="1">
+      <c r="B38" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="G37" s="24" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="38" ht="50" customHeight="1" spans="2:5">
-      <c r="B38" t="s">
-        <v>175</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="E38" s="18" t="s">
+    </row>
+    <row r="39" spans="1:7" ht="20" customHeight="1"/>
+    <row r="40" spans="1:7" ht="20" customHeight="1">
+      <c r="A40" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="39" ht="20" customHeight="1"/>
-    <row r="40" ht="20" customHeight="1" spans="1:1">
-      <c r="A40" s="3" t="s">
+    <row r="41" spans="1:7" ht="20" customHeight="1">
+      <c r="B41" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="41" ht="20" customHeight="1" spans="2:7">
-      <c r="B41" t="s">
+      <c r="E41" t="s">
         <v>178</v>
       </c>
-      <c r="E41" t="s">
+      <c r="G41" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="G41" s="15" t="s">
+    </row>
+    <row r="42" spans="1:7" ht="20" customHeight="1">
+      <c r="B42" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="42" ht="20" customHeight="1" spans="2:7">
-      <c r="B42" t="s">
+      <c r="G42" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="20" customHeight="1">
+      <c r="B43" t="s">
         <v>181</v>
       </c>
-      <c r="G42" s="15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="43" ht="20" customHeight="1" spans="2:7">
-      <c r="B43" t="s">
+      <c r="G43" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="20" customHeight="1">
+      <c r="B44" t="s">
         <v>182</v>
       </c>
-      <c r="G43" s="15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44" ht="20" customHeight="1" spans="2:7">
-      <c r="B44" t="s">
-        <v>183</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="45" ht="20" customHeight="1"/>
+      <c r="G44" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="20" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E14:E21"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C14:C21"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D14:D21"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E14:E21"/>
   </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D22" sqref="D21:D22"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="28" style="3" customWidth="1"/>
-    <col min="2" max="2" width="54.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="55.1666666666667" customWidth="1"/>
-    <col min="4" max="4" width="54.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="50.8333333333333" customWidth="1"/>
-    <col min="6" max="6" width="39.1666666666667" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" customWidth="1"/>
+    <col min="3" max="3" width="55.1640625" customWidth="1"/>
+    <col min="4" max="4" width="54.33203125" customWidth="1"/>
+    <col min="5" max="5" width="50.83203125" customWidth="1"/>
+    <col min="6" max="6" width="39.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="37" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="37" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3589,9 +3037,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3599,7 +3047,7 @@
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -3615,7 +3063,7 @@
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
@@ -3629,7 +3077,7 @@
       <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
@@ -3643,7 +3091,7 @@
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
@@ -3657,7 +3105,7 @@
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="29" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -3673,7 +3121,7 @@
       <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="9"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="6" t="s">
         <v>26</v>
       </c>
@@ -3687,7 +3135,7 @@
       <c r="B9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="6" t="s">
         <v>29</v>
       </c>
@@ -3701,7 +3149,7 @@
       <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="6" t="s">
         <v>32</v>
       </c>
@@ -3710,22 +3158,22 @@
       </c>
       <c r="F10" s="6"/>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:6">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:6" s="2" customFormat="1">
+      <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5"/>
       <c r="B13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -3739,7 +3187,7 @@
       <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="6" t="s">
         <v>32</v>
       </c>
@@ -3751,7 +3199,7 @@
       <c r="B15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="6" t="s">
         <v>40</v>
       </c>
@@ -3763,7 +3211,7 @@
       <c r="B16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="6" t="s">
         <v>42</v>
       </c>
@@ -3775,7 +3223,7 @@
       <c r="B17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="6" t="s">
         <v>44</v>
       </c>
@@ -3787,24 +3235,24 @@
       <c r="B18" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="6" t="s">
         <v>46</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="5"/>
       <c r="B21" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="29" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -3817,22 +3265,22 @@
       <c r="B22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E22" s="6"/>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="4:4">
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>51</v>
       </c>
@@ -3854,7 +3302,9 @@
       <c r="B28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="6" t="s">
+        <v>185</v>
+      </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -3874,10 +3324,10 @@
     <row r="30" spans="1:6">
       <c r="A30" s="5"/>
       <c r="B30" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -3886,10 +3336,10 @@
     <row r="31" spans="1:6">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -3898,10 +3348,10 @@
     <row r="32" spans="1:6">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -3910,10 +3360,10 @@
     <row r="33" spans="1:6">
       <c r="A33" s="5"/>
       <c r="B33" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -3926,7 +3376,7 @@
     <mergeCell ref="C13:C18"/>
     <mergeCell ref="C21:C22"/>
   </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/烟机工业数字大脑-2024-06-17.xlsx
+++ b/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/烟机工业数字大脑-2024-06-17.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangzuogong/IdeaProjects/ike-date/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEBEE62-4988-7440-98FC-7DB15F705946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628EC030-9520-5A41-A4E0-48F7FB14C0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外协订单指标" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="191">
   <si>
     <t>模块</t>
   </si>
@@ -434,9 +434,6 @@
   </si>
   <si>
     <t>年度采购总金额</t>
-  </si>
-  <si>
-    <t>ODS_HANA.dbo.digital_brain_purchase_plan_amount</t>
   </si>
   <si>
     <t>contract_amount</t>
@@ -643,26 +640,10 @@
     <t>零件交货合格率</t>
   </si>
   <si>
-    <t>qualified_cnt/an_finish_cnt</t>
-  </si>
-  <si>
     <t>交货质量综合</t>
   </si>
   <si>
     <t>采购品类合同金额占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          select  sum(plan_contract_amount)/10000
-             ,pur_type_name
-		       ,category_type_name
-        from ODS_HANA.dbo.digital_brain_purchase_plan_amount
-        where contract_state_desc = '审批通过' 
-        and category_type_name ='采购品类'
-         AND CONVERT(DATE, approved_date_time) &gt;=CAST(YEAR(GETDATE()) AS VARCHAR(4)) + '-01-01'   
-         AND CONVERT(DATE,approved_date_time) &lt;= CONVERT(DATE, GETDATE())  
-         AND contract_year=YEAR( GETDATE())
-         group by pur_type_name
-		       ,category_type_name</t>
   </si>
   <si>
     <t>按照系统当年的合同统计，根据系统当年的合同号找到对应的采购计划，再根据采购类别编号跟品类进行的对应关系划分合同，计算同一品类的合同金额</t>
@@ -732,6 +713,35 @@
       ,count(case when create_date = CONVERT(DATE, GETDATE()) then 1 else null end ) d -- 日新增数量
       ,count(case when create_date = CONVERT(DATE, GETDATE()) and day_cnt = 0 then 1 else null end ) d -- 日消耗数量
   from digital_brain_outbuy_step_ord</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">qualified_cnt/overdue_f_od_cnt+an_finish_cnt </t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Outsourcing_Dashboard.dbo.digital_brain_outbuy_dashboard_index_month</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Outsourcing_Dashboard.dbo.digital_brain_purchase_plan_amount</t>
+  </si>
+  <si>
+    <t>Outsourcing_Dashboard.dbo.digital_brain_purchase_plan_amount</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          select  sum(plan_contract_amount)/10000
+             ,pur_type_name
+		       ,category_type_name
+        from ODS_HANA.dbo.digital_brain_purchase_plan_amount
+        where contract_state_desc = '审批通过' 
+        and category_type_name ='采购品类'
+         AND CONVERT(DATE, approved_date_time) &gt;=CAST(YEAR(GETDATE()) AS VARCHAR(4)) + '-01-01'   
+         AND CONVERT(DATE,approved_date_time) &lt;= CONVERT(DATE, GETDATE())  
+         AND contract_year=YEAR( GETDATE())
+         group by pur_type_name
+		       ,category_type_name</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -965,7 +975,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1085,6 +1095,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1450,7 +1469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -1745,11 +1764,11 @@
         <v>55</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="27" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -1763,7 +1782,7 @@
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="27" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -2575,15 +2594,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="55.6640625" customWidth="1"/>
+    <col min="3" max="3" width="72.5" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="84.6640625" customWidth="1"/>
     <col min="6" max="6" width="64.33203125" customWidth="1"/>
@@ -2622,134 +2641,134 @@
         <v>124</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" t="s">
         <v>125</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" t="s">
         <v>127</v>
-      </c>
-      <c r="F2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="10" customFormat="1" ht="20" customHeight="1">
       <c r="A3" s="14"/>
       <c r="B3" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>129</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" ht="20" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="B5" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" t="s">
         <v>133</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" s="11" t="s">
         <v>134</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="B6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="F6" t="s">
         <v>139</v>
-      </c>
-      <c r="F6" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="11" customFormat="1" ht="20" customHeight="1">
       <c r="A7" s="16"/>
       <c r="B7" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" s="11" t="s">
         <v>142</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1"/>
     <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10"/>
       <c r="B10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="36" t="s">
+      <c r="E10" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="F10" t="s">
         <v>147</v>
-      </c>
-      <c r="F10" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="B11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
       <c r="F11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1"/>
     <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="B14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="37" t="s">
         <v>151</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="B15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C15" s="36"/>
       <c r="D15" s="37"/>
@@ -2757,7 +2776,7 @@
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="B16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C16" s="36"/>
       <c r="D16" s="37"/>
@@ -2765,7 +2784,7 @@
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1">
       <c r="B17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="37"/>
@@ -2773,7 +2792,7 @@
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1">
       <c r="B18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
@@ -2781,7 +2800,7 @@
     </row>
     <row r="19" spans="1:7" ht="20" customHeight="1">
       <c r="B19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C19" s="36"/>
       <c r="D19" s="37"/>
@@ -2789,7 +2808,7 @@
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1">
       <c r="B20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C20" s="36"/>
       <c r="D20" s="37"/>
@@ -2797,7 +2816,7 @@
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1">
       <c r="B21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C21" s="36"/>
       <c r="D21" s="37"/>
@@ -2805,58 +2824,58 @@
     </row>
     <row r="22" spans="1:7" s="11" customFormat="1" ht="20" customHeight="1">
       <c r="A22" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C22" s="12"/>
       <c r="G22" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1"/>
     <row r="24" spans="1:7" ht="20" customHeight="1"/>
     <row r="25" spans="1:7" ht="20" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="37" customHeight="1">
       <c r="B26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>164</v>
-      </c>
       <c r="F26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1"/>
     <row r="28" spans="1:7" ht="20" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1">
       <c r="B29" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="39" t="s">
-        <v>22</v>
+      <c r="C29" s="41" t="s">
+        <v>187</v>
       </c>
       <c r="D29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1">
@@ -2865,121 +2884,121 @@
       </c>
       <c r="C30" s="39"/>
       <c r="D30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="20" customHeight="1">
       <c r="B31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C31" s="39"/>
       <c r="D31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="F31" t="s">
         <v>166</v>
-      </c>
-      <c r="E31" t="s">
-        <v>169</v>
-      </c>
-      <c r="F31" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="11" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="16"/>
       <c r="B32" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1"/>
     <row r="34" spans="1:7" ht="20" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="58" customHeight="1">
       <c r="B35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>172</v>
+        <v>145</v>
+      </c>
+      <c r="E35" s="42" t="s">
+        <v>190</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1"/>
     <row r="37" spans="1:7" ht="21" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="50" customHeight="1">
       <c r="B38" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="20" customHeight="1"/>
     <row r="40" spans="1:7" ht="20" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="20" customHeight="1">
       <c r="B41" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E41" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="20" customHeight="1">
       <c r="B42" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="20" customHeight="1">
       <c r="B43" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="20" customHeight="1">
       <c r="B44" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="20" customHeight="1"/>
@@ -3039,7 +3058,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3277,7 +3296,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3303,7 +3322,7 @@
         <v>55</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>

--- a/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/烟机工业数字大脑-2024-06-17.xlsx
+++ b/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/烟机工业数字大脑-2024-06-17.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangzuogong/IdeaProjects/ike-date/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628EC030-9520-5A41-A4E0-48F7FB14C0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD1F97F-A8D5-5548-8748-D03BAB570899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外协订单指标" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="193">
   <si>
     <t>模块</t>
   </si>
@@ -237,24 +237,10 @@
     <t>ODS_HANA.dbo.digital_brain_outbuy_step_warehouse</t>
   </si>
   <si>
-    <t xml:space="preserve">      select count( distinct order_item_id)
-                ,sum(case when CONVERT(VARCHAR(7),chech_time, 120) = CONVERT(VARCHAR(7),CONVERT(DATE, GETDATE()),  120) then day_cnt else null end)/count(case when CONVERT(VARCHAR(7),chech_time, 120) = CONVERT(VARCHAR(7),CONVERT(DATE, GETDATE()),  120) then day_cnt else null end)
-                ,count(distinct case when CONVERT(DATE, chech_time) = CONVERT(DATE, GETDATE()-1) then order_item_id else null end ) -- 日新增数量
-                ,count(distinct case when CONVERT(DATE, migo_time) = CONVERT(DATE, GETDATE()-1) and day_cnt =0 then order_item_id else null end )  -- 日消耗数量
-            from ODS_HANA.dbo.digital_brain_outbuy_step_warehouse</t>
-  </si>
-  <si>
     <t>入库</t>
   </si>
   <si>
     <t>ODS_HANA.dbo.digital_brain_outbuy_step_inspection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     select   count( distinct order_item_num)
-             ,sum(case when CONVERT(VARCHAR(7),create_date_time, 120) = CONVERT(VARCHAR(7),CONVERT(DATE, GETDATE()),  120) then day_cnt else null end)/count(case when CONVERT(VARCHAR(7),create_date_time, 120) = CONVERT(VARCHAR(7),CONVERT(DATE, GETDATE()),  120) then quantity else null end)
-             ,count(distinct case when CONVERT(DATE,create_date_time) = CONVERT(DATE, GETDATE()-1) then order_item_num else null end )  -- 日新增数量
-             ,count(distinct case when CONVERT(DATE,create_date_time) = CONVERT(DATE, GETDATE()-1) and day_cnt =0 then order_item_num else null end )  -- 日消耗数量
-       from  ODS_HANA.dbo.digital_brain_outbuy_step_inspection</t>
   </si>
   <si>
     <t>开票</t>
@@ -742,6 +728,32 @@
          AND contract_year=YEAR( GETDATE())
          group by pur_type_name
 		       ,category_type_name</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Digital_Brain_Quality.dbo.digital_brain_outbuy_step_inspection</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital_Brain_Quality.dbo.digital_brain_outbuy_step_warehouse</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+          select count( distinct order_item_id)
+                ,sum(case when CONVERT(VARCHAR(7),chech_time, 120) = CONVERT(VARCHAR(7),CONVERT(DATE, GETDATE()),  120) then day_cnt else null end)/count(case when CONVERT(VARCHAR(7),chech_time, 120) = CONVERT(VARCHAR(7),CONVERT(DATE, GETDATE()),  120) then day_cnt else null end)
+                ,count(distinct case when CONVERT(DATE, chech_time) = CONVERT(DATE, GETDATE()-1) then order_item_id else null end ) -- 日新增数量
+                ,count(distinct case when CONVERT(DATE, migo_time) = CONVERT(DATE, GETDATE()-1) and day_cnt =0 then order_item_id else null end )  -- 日消耗数量
+            from Digital_Brain_Quality.dbo.digital_brain_outbuy_step_warehouse</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            
+     select   count( distinct order_item_num)
+             ,sum(case when CONVERT(VARCHAR(7),create_date_time, 120) = CONVERT(VARCHAR(7),CONVERT(DATE, GETDATE()),  120) then day_cnt else null end)/count(case when CONVERT(VARCHAR(7),create_date_time, 120) = CONVERT(VARCHAR(7),CONVERT(DATE, GETDATE()),  120) then quantity else null end)
+             ,count(distinct case when CONVERT(DATE,create_date_time) = CONVERT(DATE, GETDATE()-1) then order_item_num else null end )  -- 日新增数量
+             ,count(distinct case when CONVERT(DATE,create_date_time) = CONVERT(DATE, GETDATE()-1) and day_cnt =0 then order_item_num else null end )  -- 日消耗数量
+       from  Digital_Brain_Quality.dbo.digital_brain_outbuy_step_inspection</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1060,6 +1072,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1093,17 +1111,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1469,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
@@ -1513,7 +1525,7 @@
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="30" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -1531,7 +1543,7 @@
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
@@ -1545,7 +1557,7 @@
       <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
@@ -1559,7 +1571,7 @@
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="28"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
@@ -1573,7 +1585,7 @@
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="31" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -1589,7 +1601,7 @@
       <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="6" t="s">
         <v>26</v>
       </c>
@@ -1603,7 +1615,7 @@
       <c r="B9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="6" t="s">
         <v>29</v>
       </c>
@@ -1617,7 +1629,7 @@
       <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="31"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="6" t="s">
         <v>32</v>
       </c>
@@ -1641,7 +1653,7 @@
       <c r="B13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -1655,7 +1667,7 @@
       <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="30"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="6" t="s">
         <v>38</v>
       </c>
@@ -1667,7 +1679,7 @@
       <c r="B15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="6" t="s">
         <v>40</v>
       </c>
@@ -1679,7 +1691,7 @@
       <c r="B16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="30"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="6" t="s">
         <v>42</v>
       </c>
@@ -1691,7 +1703,7 @@
       <c r="B17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="30"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="6" t="s">
         <v>44</v>
       </c>
@@ -1703,7 +1715,7 @@
       <c r="B18" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="31"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="6" t="s">
         <v>46</v>
       </c>
@@ -1720,7 +1732,7 @@
       <c r="B21" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="31" t="s">
         <v>48</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -1733,7 +1745,7 @@
       <c r="B22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="31"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="6" t="s">
         <v>50</v>
       </c>
@@ -1764,11 +1776,11 @@
         <v>55</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -1782,7 +1794,7 @@
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -1801,44 +1813,44 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" ht="255">
+    <row r="29" spans="1:6" ht="300">
       <c r="A29" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>62</v>
+      <c r="B29" s="26" t="s">
+        <v>189</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="25" t="s">
-        <v>63</v>
+      <c r="D29" s="27" t="s">
+        <v>192</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" ht="270">
+    <row r="30" spans="1:6" ht="285">
       <c r="A30" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>190</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="25" t="s">
-        <v>66</v>
+      <c r="D30" s="27" t="s">
+        <v>191</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" ht="255">
       <c r="A31" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -1884,13 +1896,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1898,7 +1910,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1906,17 +1918,17 @@
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="G3" s="6"/>
     </row>
@@ -1925,12 +1937,12 @@
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="30"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1938,14 +1950,14 @@
     <row r="5" spans="1:7">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -1955,15 +1967,15 @@
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G6" s="6"/>
     </row>
@@ -1972,64 +1984,64 @@
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="30"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="30"/>
+        <v>82</v>
+      </c>
+      <c r="C8" s="32"/>
       <c r="D8" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="30"/>
+        <v>83</v>
+      </c>
+      <c r="C9" s="32"/>
       <c r="D9" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="F10" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G10" s="6"/>
     </row>
@@ -2038,34 +2050,34 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="30"/>
+        <v>91</v>
+      </c>
+      <c r="C14" s="32"/>
       <c r="D14" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -2074,11 +2086,11 @@
     <row r="15" spans="1:7">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="31"/>
+        <v>93</v>
+      </c>
+      <c r="C15" s="33"/>
       <c r="D15" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -2099,11 +2111,11 @@
       <c r="B18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="29" t="s">
-        <v>73</v>
+      <c r="C18" s="31" t="s">
+        <v>71</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -2113,9 +2125,9 @@
       <c r="B19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="30"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -2125,9 +2137,9 @@
       <c r="B20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="30"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -2137,7 +2149,7 @@
       <c r="B21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="30"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="6" t="s">
         <v>42</v>
       </c>
@@ -2149,9 +2161,9 @@
       <c r="B22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="30"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -2161,7 +2173,7 @@
       <c r="B23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="31"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="6" t="s">
         <v>46</v>
       </c>
@@ -2173,7 +2185,7 @@
     </row>
     <row r="25" spans="1:7" s="21" customFormat="1">
       <c r="A25" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="21" customFormat="1">
@@ -2185,162 +2197,162 @@
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
-      <c r="G26" s="32" t="s">
-        <v>102</v>
+      <c r="G26" s="34" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="21" customFormat="1">
       <c r="A27" s="23"/>
       <c r="B27" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
-      <c r="G27" s="33"/>
+      <c r="G27" s="35"/>
     </row>
     <row r="28" spans="1:7" s="21" customFormat="1">
       <c r="A28" s="23"/>
       <c r="B28" s="24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
-      <c r="G28" s="33"/>
+      <c r="G28" s="35"/>
     </row>
     <row r="29" spans="1:7" s="21" customFormat="1">
       <c r="A29" s="23"/>
       <c r="B29" s="24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
-      <c r="G29" s="33"/>
+      <c r="G29" s="35"/>
     </row>
     <row r="30" spans="1:7" s="21" customFormat="1">
       <c r="A30" s="23"/>
       <c r="B30" s="24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
-      <c r="G30" s="33"/>
+      <c r="G30" s="35"/>
     </row>
     <row r="31" spans="1:7" s="21" customFormat="1">
       <c r="A31" s="23"/>
       <c r="B31" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
-      <c r="G31" s="33"/>
+      <c r="G31" s="35"/>
     </row>
     <row r="32" spans="1:7" s="21" customFormat="1">
       <c r="A32" s="23"/>
       <c r="B32" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
-      <c r="G32" s="33"/>
+      <c r="G32" s="35"/>
     </row>
     <row r="33" spans="1:7" s="21" customFormat="1">
       <c r="A33" s="22"/>
-      <c r="G33" s="33"/>
+      <c r="G33" s="35"/>
     </row>
     <row r="34" spans="1:7" s="21" customFormat="1">
       <c r="A34" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="G34" s="33"/>
+        <v>106</v>
+      </c>
+      <c r="G34" s="35"/>
     </row>
     <row r="35" spans="1:7" s="21" customFormat="1">
       <c r="A35" s="23"/>
       <c r="B35" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C35" s="24"/>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
-      <c r="G35" s="33"/>
+      <c r="G35" s="35"/>
     </row>
     <row r="36" spans="1:7" s="21" customFormat="1">
       <c r="A36" s="23"/>
       <c r="B36" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
-      <c r="G36" s="33"/>
+      <c r="G36" s="35"/>
     </row>
     <row r="37" spans="1:7" s="21" customFormat="1">
       <c r="A37" s="23"/>
       <c r="B37" s="24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
-      <c r="G37" s="33"/>
+      <c r="G37" s="35"/>
     </row>
     <row r="38" spans="1:7" s="21" customFormat="1">
       <c r="A38" s="23"/>
       <c r="B38" s="24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C38" s="24"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
-      <c r="G38" s="33"/>
+      <c r="G38" s="35"/>
     </row>
     <row r="39" spans="1:7" s="21" customFormat="1">
       <c r="A39" s="23"/>
       <c r="B39" s="24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
-      <c r="G39" s="33"/>
+      <c r="G39" s="35"/>
     </row>
     <row r="40" spans="1:7" s="21" customFormat="1">
       <c r="A40" s="23"/>
       <c r="B40" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C40" s="24"/>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
-      <c r="G40" s="33"/>
+      <c r="G40" s="35"/>
     </row>
     <row r="41" spans="1:7" s="21" customFormat="1">
       <c r="A41" s="23"/>
       <c r="B41" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" s="24"/>
       <c r="D41" s="24"/>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
-      <c r="G41" s="34"/>
+      <c r="G41" s="36"/>
     </row>
     <row r="42" spans="1:7" s="21" customFormat="1"/>
   </sheetData>
@@ -2381,13 +2393,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -2404,7 +2416,7 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -2412,7 +2424,7 @@
     <row r="4" spans="1:7">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -2423,7 +2435,7 @@
     <row r="5" spans="1:7">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2439,7 +2451,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="18"/>
@@ -2447,7 +2459,7 @@
     <row r="7" spans="1:7">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -2458,7 +2470,7 @@
     <row r="8" spans="1:7">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -2474,7 +2486,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="18"/>
@@ -2487,7 +2499,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="18"/>
@@ -2495,7 +2507,7 @@
     <row r="11" spans="1:7">
       <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -2506,7 +2518,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -2517,7 +2529,7 @@
     <row r="13" spans="1:7">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -2528,7 +2540,7 @@
     <row r="14" spans="1:7">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -2539,7 +2551,7 @@
     <row r="15" spans="1:7">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -2550,7 +2562,7 @@
     <row r="16" spans="1:7">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -2566,7 +2578,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="19"/>
@@ -2579,7 +2591,7 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="20"/>
@@ -2594,7 +2606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -2621,244 +2633,244 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="92" customHeight="1">
       <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>125</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="10" customFormat="1" ht="20" customHeight="1">
       <c r="A3" s="14"/>
       <c r="B3" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" ht="20" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="B5" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>132</v>
-      </c>
-      <c r="F5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="B6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="E6" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="F6" t="s">
         <v>137</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="F6" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="11" customFormat="1" ht="20" customHeight="1">
       <c r="A7" s="16"/>
       <c r="B7" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>140</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1"/>
     <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10"/>
       <c r="B10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="D10" s="36" t="s">
+      <c r="F10" t="s">
         <v>145</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="F10" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="B11" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
+        <v>146</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
       <c r="F11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1"/>
     <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="B14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>151</v>
+        <v>148</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="B15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
+        <v>150</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="B16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
+        <v>151</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1">
       <c r="B17" t="s">
-        <v>154</v>
-      </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
+        <v>152</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1">
       <c r="B18" t="s">
-        <v>155</v>
-      </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
+        <v>153</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
     </row>
     <row r="19" spans="1:7" ht="20" customHeight="1">
       <c r="B19" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
+        <v>154</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1">
       <c r="B20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
+        <v>155</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1">
       <c r="B21" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
+        <v>156</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40"/>
     </row>
     <row r="22" spans="1:7" s="11" customFormat="1" ht="20" customHeight="1">
       <c r="A22" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C22" s="12"/>
       <c r="G22" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1"/>
     <row r="24" spans="1:7" ht="20" customHeight="1"/>
     <row r="25" spans="1:7" ht="20" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="37" customHeight="1">
       <c r="B26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D26" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F26" t="s">
         <v>145</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="F26" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1"/>
     <row r="28" spans="1:7" ht="20" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1">
@@ -2866,139 +2878,139 @@
         <v>39</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1">
       <c r="B30" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="39"/>
+      <c r="C30" s="42"/>
       <c r="D30" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="20" customHeight="1">
       <c r="B31" t="s">
-        <v>167</v>
-      </c>
-      <c r="C31" s="39"/>
+        <v>165</v>
+      </c>
+      <c r="C31" s="42"/>
       <c r="D31" t="s">
-        <v>165</v>
-      </c>
-      <c r="E31" s="40" t="s">
-        <v>186</v>
+        <v>163</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>184</v>
       </c>
       <c r="F31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="11" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="16"/>
       <c r="B32" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1"/>
     <row r="34" spans="1:7" ht="20" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="58" customHeight="1">
       <c r="B35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="E35" s="42" t="s">
-        <v>190</v>
+        <v>143</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>188</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1"/>
     <row r="37" spans="1:7" ht="21" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="50" customHeight="1">
       <c r="B38" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="20" customHeight="1"/>
     <row r="40" spans="1:7" ht="20" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="20" customHeight="1">
       <c r="B41" t="s">
+        <v>172</v>
+      </c>
+      <c r="E41" t="s">
+        <v>173</v>
+      </c>
+      <c r="G41" s="11" t="s">
         <v>174</v>
-      </c>
-      <c r="E41" t="s">
-        <v>175</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="20" customHeight="1">
       <c r="B42" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="20" customHeight="1">
       <c r="B43" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="20" customHeight="1">
       <c r="B44" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="20" customHeight="1"/>
@@ -3022,7 +3034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -3058,7 +3070,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3066,7 +3078,7 @@
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="30" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -3082,7 +3094,7 @@
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
@@ -3096,7 +3108,7 @@
       <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
@@ -3110,7 +3122,7 @@
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="28"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
@@ -3124,7 +3136,7 @@
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="31" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -3140,7 +3152,7 @@
       <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="6" t="s">
         <v>26</v>
       </c>
@@ -3154,7 +3166,7 @@
       <c r="B9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="6" t="s">
         <v>29</v>
       </c>
@@ -3168,7 +3180,7 @@
       <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="31"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="6" t="s">
         <v>32</v>
       </c>
@@ -3192,7 +3204,7 @@
       <c r="B13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -3206,7 +3218,7 @@
       <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="30"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="6" t="s">
         <v>32</v>
       </c>
@@ -3218,7 +3230,7 @@
       <c r="B15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="6" t="s">
         <v>40</v>
       </c>
@@ -3230,7 +3242,7 @@
       <c r="B16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="30"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="6" t="s">
         <v>42</v>
       </c>
@@ -3242,7 +3254,7 @@
       <c r="B17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="30"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="6" t="s">
         <v>44</v>
       </c>
@@ -3254,7 +3266,7 @@
       <c r="B18" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="31"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="6" t="s">
         <v>46</v>
       </c>
@@ -3271,7 +3283,7 @@
       <c r="B21" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="31" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -3284,7 +3296,7 @@
       <c r="B22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="31"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="6" t="s">
         <v>50</v>
       </c>
@@ -3296,7 +3308,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3322,7 +3334,7 @@
         <v>55</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -3367,10 +3379,10 @@
     <row r="32" spans="1:6">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -3379,10 +3391,10 @@
     <row r="33" spans="1:6">
       <c r="A33" s="5"/>
       <c r="B33" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>

--- a/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/烟机工业数字大脑-2024-06-17.xlsx
+++ b/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/烟机工业数字大脑-2024-06-17.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangzuogong/IdeaProjects/ike-date/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD1F97F-A8D5-5548-8748-D03BAB570899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D04D98-49FA-364C-9C63-5EAB6BC77850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外协订单指标" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="194">
   <si>
     <t>模块</t>
   </si>
@@ -423,12 +423,6 @@
   </si>
   <si>
     <t>contract_amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    select SUM(plan_contract_amount) as contract_amount
-       from ODS_HANA.dbo.digital_brain_purchase_plan_amount
-       where contract_year = year(GETDATE())
-       and sponsor_dept_code = '59TKR0X9'</t>
   </si>
   <si>
     <t>采购看板-》采购管理看板</t>
@@ -754,6 +748,17 @@
              ,count(distinct case when CONVERT(DATE,create_date_time) = CONVERT(DATE, GETDATE()-1) then order_item_num else null end )  -- 日新增数量
              ,count(distinct case when CONVERT(DATE,create_date_time) = CONVERT(DATE, GETDATE()-1) and day_cnt =0 then order_item_num else null end )  -- 日消耗数量
        from  Digital_Brain_Quality.dbo.digital_brain_outbuy_step_inspection</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  SELECT SUM(contract_amount) as contract_amount
+    FROM LeanProduction_Dashboard.dbo.purchase_dashboard_base_contract_info
+    where sponsor_dept_code = '59TKR0X9'
+  and contract_year = year(GETDATE())</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeanProduction_Dashboard.dbo.purchase_dashboard_base_contract_info</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1481,7 +1486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -1776,11 +1781,11 @@
         <v>55</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -1794,7 +1799,7 @@
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -1818,11 +1823,11 @@
         <v>61</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -1832,11 +1837,11 @@
         <v>63</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -2606,8 +2611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
@@ -2653,134 +2658,134 @@
         <v>122</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" t="s">
         <v>124</v>
-      </c>
-      <c r="F2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="10" customFormat="1" ht="20" customHeight="1">
       <c r="A3" s="14"/>
       <c r="B3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" ht="20" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="B5" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" t="s">
         <v>130</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" s="11" t="s">
         <v>131</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="B6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="F6" t="s">
         <v>136</v>
-      </c>
-      <c r="F6" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="11" customFormat="1" ht="20" customHeight="1">
       <c r="A7" s="16"/>
       <c r="B7" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" s="11" t="s">
         <v>139</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1"/>
     <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10"/>
       <c r="B10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="D10" s="38" t="s">
+      <c r="E10" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="F10" t="s">
         <v>144</v>
-      </c>
-      <c r="F10" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="B11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
       <c r="F11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1"/>
     <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="B14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="39" t="s">
         <v>148</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="E14" s="39" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="B15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="39"/>
@@ -2788,7 +2793,7 @@
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="B16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="39"/>
@@ -2796,7 +2801,7 @@
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1">
       <c r="B17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="39"/>
@@ -2804,7 +2809,7 @@
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1">
       <c r="B18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="39"/>
@@ -2812,7 +2817,7 @@
     </row>
     <row r="19" spans="1:7" ht="20" customHeight="1">
       <c r="B19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="39"/>
@@ -2820,7 +2825,7 @@
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1">
       <c r="B20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="39"/>
@@ -2828,7 +2833,7 @@
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1">
       <c r="B21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C21" s="38"/>
       <c r="D21" s="39"/>
@@ -2836,41 +2841,41 @@
     </row>
     <row r="22" spans="1:7" s="11" customFormat="1" ht="20" customHeight="1">
       <c r="A22" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C22" s="12"/>
       <c r="G22" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1"/>
     <row r="24" spans="1:7" ht="20" customHeight="1"/>
     <row r="25" spans="1:7" ht="20" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="37" customHeight="1">
       <c r="B26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>161</v>
-      </c>
       <c r="F26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1"/>
     <row r="28" spans="1:7" ht="20" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1">
@@ -2878,16 +2883,16 @@
         <v>39</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1">
@@ -2896,121 +2901,121 @@
       </c>
       <c r="C30" s="42"/>
       <c r="D30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="20" customHeight="1">
       <c r="B31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C31" s="42"/>
       <c r="D31" t="s">
+        <v>162</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="F31" t="s">
         <v>163</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="F31" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="11" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="16"/>
       <c r="B32" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1"/>
     <row r="34" spans="1:7" ht="20" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="58" customHeight="1">
       <c r="B35" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="G35" s="17" t="s">
         <v>167</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1"/>
     <row r="37" spans="1:7" ht="21" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="50" customHeight="1">
       <c r="B38" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" s="13" t="s">
         <v>169</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="20" customHeight="1"/>
     <row r="40" spans="1:7" ht="20" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="20" customHeight="1">
       <c r="B41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E41" t="s">
         <v>172</v>
       </c>
-      <c r="E41" t="s">
+      <c r="G41" s="11" t="s">
         <v>173</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="20" customHeight="1">
       <c r="B42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="20" customHeight="1">
       <c r="B43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="20" customHeight="1">
       <c r="B44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="20" customHeight="1"/>
@@ -3070,7 +3075,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3308,7 +3313,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3334,7 +3339,7 @@
         <v>55</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
